--- a/Final_File/Combined_guru_portfolio.xlsx
+++ b/Final_File/Combined_guru_portfolio.xlsx
@@ -3377,7 +3377,7 @@
                   <c:v>0.69145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.687025</c:v>
+                  <c:v>0.686775</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6713</c:v>
@@ -3389,7 +3389,7 @@
                   <c:v>0.5426249999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.493325</c:v>
+                  <c:v>0.495675</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.49305</c:v>
@@ -3407,7 +3407,7 @@
                   <c:v>0.4571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45405</c:v>
+                  <c:v>0.454325</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.451625</c:v>
@@ -3431,7 +3431,7 @@
                   <c:v>0.388775</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3831</c:v>
+                  <c:v>0.3823</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.377475</c:v>
@@ -3911,7 +3911,7 @@
                   <c:v>1.336666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.150833333333333</c:v>
+                  <c:v>1.150516666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.132583333333333</c:v>
@@ -3923,7 +3923,7 @@
                   <c:v>0.9942666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9926166666666667</c:v>
+                  <c:v>0.9930333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9615666666666667</c:v>
@@ -3941,7 +3941,7 @@
                   <c:v>0.8479166666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8443333333333335</c:v>
+                  <c:v>0.8472666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.7133666666666666</c:v>
@@ -5034,7 +5034,7 @@
         <v>63</v>
       </c>
       <c r="AC4" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AD4" s="5">
         <v>32</v>
@@ -5046,7 +5046,7 @@
         <v>103</v>
       </c>
       <c r="AG4" s="5">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AH4" s="2">
         <v>64</v>
@@ -5061,22 +5061,22 @@
         <v>71</v>
       </c>
       <c r="AL4" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AM4" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN4" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO4" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AP4" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AQ4" s="2">
-        <v>2943</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="5" spans="2:43">
@@ -5284,7 +5284,7 @@
         <v>0.4011</v>
       </c>
       <c r="AA6" s="5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="5">
         <v>25</v>
@@ -5302,7 +5302,7 @@
         <v>69</v>
       </c>
       <c r="AG6" s="5">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH6" s="2">
         <v>38</v>
@@ -5317,22 +5317,22 @@
         <v>51</v>
       </c>
       <c r="AL6" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AM6" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AN6" s="2">
         <v>215</v>
       </c>
       <c r="AO6" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AP6" s="2">
         <v>272</v>
       </c>
       <c r="AQ6" s="2">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="2:43">
@@ -5605,7 +5605,7 @@
         <v>982</v>
       </c>
       <c r="F9" s="3">
-        <v>60.1</v>
+        <v>51.45</v>
       </c>
       <c r="G9" s="3">
         <v>294.05</v>
@@ -5861,7 +5861,7 @@
         <v>982</v>
       </c>
       <c r="F11" s="3">
-        <v>38.68</v>
+        <v>35.13</v>
       </c>
       <c r="G11" s="3">
         <v>248.17</v>
@@ -5989,7 +5989,7 @@
         <v>982</v>
       </c>
       <c r="F12" s="3">
-        <v>71.18000000000001</v>
+        <v>54.23</v>
       </c>
       <c r="G12" s="3">
         <v>190.74</v>
@@ -6001,55 +6001,55 @@
         <v>-0.0795</v>
       </c>
       <c r="J12" s="4">
-        <v>0.0058</v>
+        <v>0.006</v>
       </c>
       <c r="K12" s="4">
-        <v>0.1019</v>
+        <v>0.1021</v>
       </c>
       <c r="L12" s="4">
-        <v>0.187</v>
+        <v>0.1872</v>
       </c>
       <c r="M12" s="4">
-        <v>0.5344</v>
+        <v>0.5348000000000001</v>
       </c>
       <c r="N12" s="4">
-        <v>1.5215</v>
+        <v>1.522</v>
       </c>
       <c r="O12" s="4">
-        <v>3.6051</v>
+        <v>3.6061</v>
       </c>
       <c r="P12" s="4">
-        <v>1.8836</v>
+        <v>1.8838</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7778</v>
+        <v>0.7779</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>993</v>
       </c>
       <c r="S12" s="4">
-        <v>22.977564</v>
+        <v>22.982553</v>
       </c>
       <c r="T12" s="4">
-        <v>16.758837</v>
+        <v>16.763832</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>993</v>
       </c>
       <c r="V12" s="4">
-        <v>0.4701</v>
+        <v>0.4704</v>
       </c>
       <c r="W12" s="4">
-        <v>0.5862000000000001</v>
+        <v>0.5865</v>
       </c>
       <c r="X12" s="4">
-        <v>0.0982</v>
+        <v>0.0984</v>
       </c>
       <c r="Y12" s="4">
-        <v>1.462</v>
+        <v>1.4625</v>
       </c>
       <c r="Z12" s="4">
-        <v>0.9926</v>
+        <v>0.993</v>
       </c>
       <c r="AA12" s="5">
         <v>116</v>
@@ -6245,7 +6245,7 @@
         <v>985</v>
       </c>
       <c r="F14" s="3">
-        <v>35.71</v>
+        <v>34.11</v>
       </c>
       <c r="G14" s="3">
         <v>330.83</v>
@@ -6442,7 +6442,7 @@
         <v>18</v>
       </c>
       <c r="AC15" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15" s="5">
         <v>6</v>
@@ -6454,7 +6454,7 @@
         <v>26</v>
       </c>
       <c r="AG15" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH15" s="2">
         <v>4</v>
@@ -6469,22 +6469,22 @@
         <v>10</v>
       </c>
       <c r="AL15" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM15" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN15" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO15" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP15" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AQ15" s="2">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="2:43">
@@ -6501,7 +6501,7 @@
         <v>982</v>
       </c>
       <c r="F16" s="3">
-        <v>62.07</v>
+        <v>47.53</v>
       </c>
       <c r="G16" s="3">
         <v>160.94</v>
@@ -6629,7 +6629,7 @@
         <v>982</v>
       </c>
       <c r="F17" s="3">
-        <v>62.24</v>
+        <v>47.88</v>
       </c>
       <c r="G17" s="3">
         <v>94.67</v>
@@ -7013,7 +7013,7 @@
         <v>986</v>
       </c>
       <c r="F20" s="3">
-        <v>44.28</v>
+        <v>35.56</v>
       </c>
       <c r="G20" s="3">
         <v>547.96</v>
@@ -7073,7 +7073,7 @@
         <v>0.2699</v>
       </c>
       <c r="AA20" s="5">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AB20" s="5">
         <v>368</v>
@@ -7091,7 +7091,7 @@
         <v>42</v>
       </c>
       <c r="AG20" s="5">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AH20" s="2">
         <v>123</v>
@@ -7106,22 +7106,22 @@
         <v>76</v>
       </c>
       <c r="AL20" s="2">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AM20" s="2">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AN20" s="2">
         <v>1082</v>
       </c>
       <c r="AO20" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AP20" s="2">
         <v>714</v>
       </c>
       <c r="AQ20" s="2">
-        <v>6898</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="21" spans="2:43">
@@ -7138,7 +7138,7 @@
         <v>983</v>
       </c>
       <c r="F21" s="3">
-        <v>37.65</v>
+        <v>33.63</v>
       </c>
       <c r="G21" s="3">
         <v>629.6</v>
@@ -7204,7 +7204,7 @@
         <v>327</v>
       </c>
       <c r="AB21" s="5">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC21" s="5">
         <v>342</v>
@@ -7219,7 +7219,7 @@
         <v>64</v>
       </c>
       <c r="AG21" s="5">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="AH21" s="2">
         <v>237</v>
@@ -7234,22 +7234,22 @@
         <v>136</v>
       </c>
       <c r="AL21" s="2">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="AM21" s="2">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="AN21" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AO21" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AP21" s="2">
         <v>997</v>
       </c>
       <c r="AQ21" s="2">
-        <v>8003</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="22" spans="2:43">
@@ -7266,7 +7266,7 @@
         <v>987</v>
       </c>
       <c r="F22" s="3">
-        <v>59.47</v>
+        <v>49.88</v>
       </c>
       <c r="G22" s="3">
         <v>136.8</v>
@@ -7394,7 +7394,7 @@
         <v>988</v>
       </c>
       <c r="F23" s="3">
-        <v>53.13</v>
+        <v>47.59</v>
       </c>
       <c r="G23" s="3">
         <v>362.82</v>
@@ -7460,7 +7460,7 @@
         <v>393</v>
       </c>
       <c r="AB23" s="5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC23" s="5">
         <v>249</v>
@@ -7475,7 +7475,7 @@
         <v>74</v>
       </c>
       <c r="AG23" s="5">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AH23" s="2">
         <v>86</v>
@@ -7490,22 +7490,22 @@
         <v>75</v>
       </c>
       <c r="AL23" s="2">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AM23" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AN23" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO23" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AP23" s="2">
         <v>526</v>
       </c>
       <c r="AQ23" s="2">
-        <v>4696</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="24" spans="2:43">
@@ -7522,7 +7522,7 @@
         <v>984</v>
       </c>
       <c r="F24" s="3">
-        <v>35.75</v>
+        <v>34.89</v>
       </c>
       <c r="G24" s="3">
         <v>156.51</v>
@@ -7650,7 +7650,7 @@
         <v>987</v>
       </c>
       <c r="F25" s="3">
-        <v>45.87</v>
+        <v>39.49</v>
       </c>
       <c r="G25" s="3">
         <v>307.32</v>
@@ -7778,7 +7778,7 @@
         <v>983</v>
       </c>
       <c r="F26" s="3">
-        <v>30.32</v>
+        <v>28.29</v>
       </c>
       <c r="G26" s="3">
         <v>104.13</v>
@@ -7906,7 +7906,7 @@
         <v>987</v>
       </c>
       <c r="F27" s="3">
-        <v>60.97</v>
+        <v>57.7</v>
       </c>
       <c r="G27" s="3">
         <v>35.86</v>
@@ -8034,7 +8034,7 @@
         <v>986</v>
       </c>
       <c r="F28" s="3">
-        <v>65.7</v>
+        <v>54.71</v>
       </c>
       <c r="G28" s="3">
         <v>180.82</v>
@@ -8162,7 +8162,7 @@
         <v>988</v>
       </c>
       <c r="F29" s="3">
-        <v>46.85</v>
+        <v>42.55</v>
       </c>
       <c r="G29" s="3">
         <v>185.74</v>
@@ -8418,7 +8418,7 @@
         <v>982</v>
       </c>
       <c r="F31" s="3">
-        <v>68.92</v>
+        <v>61.37</v>
       </c>
       <c r="G31" s="3">
         <v>328.3</v>
@@ -8546,7 +8546,7 @@
         <v>988</v>
       </c>
       <c r="F32" s="3">
-        <v>57.84</v>
+        <v>50.09</v>
       </c>
       <c r="G32" s="3">
         <v>167.99</v>
@@ -8802,7 +8802,7 @@
         <v>988</v>
       </c>
       <c r="F34" s="3">
-        <v>53.32</v>
+        <v>46.03</v>
       </c>
       <c r="G34" s="3">
         <v>395.25</v>
@@ -8930,7 +8930,7 @@
         <v>986</v>
       </c>
       <c r="F35" s="3">
-        <v>67.34</v>
+        <v>58.01</v>
       </c>
       <c r="G35" s="3">
         <v>75.59999999999999</v>
@@ -9058,7 +9058,7 @@
         <v>989</v>
       </c>
       <c r="F36" s="3">
-        <v>42.7</v>
+        <v>37.37</v>
       </c>
       <c r="G36" s="3">
         <v>10.96</v>
@@ -9439,7 +9439,7 @@
         <v>982</v>
       </c>
       <c r="F39" s="3">
-        <v>56.62</v>
+        <v>50.65</v>
       </c>
       <c r="G39" s="3">
         <v>18.1</v>
@@ -9448,61 +9448,61 @@
         <v>-0.0616</v>
       </c>
       <c r="J39" s="4">
-        <v>0.018</v>
+        <v>0.0169</v>
       </c>
       <c r="K39" s="4">
-        <v>0.0083</v>
+        <v>0.0072</v>
       </c>
       <c r="L39" s="4">
-        <v>-0.3807</v>
+        <v>-0.3814</v>
       </c>
       <c r="M39" s="4">
-        <v>1.3811</v>
+        <v>1.3784</v>
       </c>
       <c r="N39" s="4">
-        <v>0.5278</v>
+        <v>0.5261</v>
       </c>
       <c r="O39" s="4">
-        <v>1.1368</v>
+        <v>1.1344</v>
       </c>
       <c r="P39" s="4">
-        <v>2.0455</v>
+        <v>2.0444</v>
       </c>
       <c r="Q39" s="4">
-        <v>0.9646</v>
+        <v>0.9641999999999999</v>
       </c>
       <c r="R39" s="4">
-        <v>0.547</v>
+        <v>0.5468</v>
       </c>
       <c r="S39" s="4">
-        <v>27.247226</v>
+        <v>27.21663</v>
       </c>
       <c r="T39" s="4">
-        <v>28.266494</v>
+        <v>28.236712</v>
       </c>
       <c r="U39" s="4">
-        <v>77.506052</v>
+        <v>77.40461599999999</v>
       </c>
       <c r="V39" s="4">
-        <v>0.3109</v>
+        <v>0.3094</v>
       </c>
       <c r="W39" s="4">
-        <v>0.3841</v>
+        <v>0.3826</v>
       </c>
       <c r="X39" s="4">
-        <v>-0.1181</v>
+        <v>-0.1191</v>
       </c>
       <c r="Y39" s="4">
-        <v>0.6662</v>
+        <v>0.6644</v>
       </c>
       <c r="Z39" s="4">
-        <v>0.4486</v>
+        <v>0.4469</v>
       </c>
       <c r="AA39" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="5">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AC39" s="5">
         <v>486</v>
@@ -9517,37 +9517,37 @@
         <v>27</v>
       </c>
       <c r="AG39" s="5">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="AH39" s="2">
         <v>49</v>
       </c>
       <c r="AI39" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ39" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK39" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL39" s="2">
-        <v>1431</v>
+        <v>1441</v>
       </c>
       <c r="AM39" s="2">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="AN39" s="2">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="AO39" s="2">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="AP39" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AQ39" s="2">
-        <v>4889</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="40" spans="2:43">
@@ -9948,7 +9948,7 @@
         <v>987</v>
       </c>
       <c r="F43" s="3">
-        <v>56.41</v>
+        <v>56.25</v>
       </c>
       <c r="G43" s="3">
         <v>309.25</v>
@@ -10076,7 +10076,7 @@
         <v>985</v>
       </c>
       <c r="F44" s="3">
-        <v>72.67</v>
+        <v>74.2</v>
       </c>
       <c r="G44" s="3">
         <v>906.86</v>
@@ -10204,7 +10204,7 @@
         <v>987</v>
       </c>
       <c r="F45" s="3">
-        <v>41.31</v>
+        <v>45.79</v>
       </c>
       <c r="G45" s="3">
         <v>340.3</v>
@@ -10332,7 +10332,7 @@
         <v>987</v>
       </c>
       <c r="F46" s="3">
-        <v>32.81</v>
+        <v>40.94</v>
       </c>
       <c r="G46" s="3">
         <v>552.75</v>
@@ -10460,7 +10460,7 @@
         <v>990</v>
       </c>
       <c r="F47" s="3">
-        <v>50.01</v>
+        <v>51.44</v>
       </c>
       <c r="G47" s="3">
         <v>114.14</v>
@@ -10526,7 +10526,7 @@
         <v>194</v>
       </c>
       <c r="AB47" s="5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC47" s="5">
         <v>183</v>
@@ -10541,7 +10541,7 @@
         <v>309</v>
       </c>
       <c r="AG47" s="5">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="AH47" s="2">
         <v>226</v>
@@ -10556,22 +10556,22 @@
         <v>252</v>
       </c>
       <c r="AL47" s="2">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="AM47" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AN47" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AO47" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AP47" s="2">
         <v>1250</v>
       </c>
       <c r="AQ47" s="2">
-        <v>6533</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="48" spans="2:43">
@@ -10716,7 +10716,7 @@
         <v>985</v>
       </c>
       <c r="F49" s="3">
-        <v>45.84</v>
+        <v>47.78</v>
       </c>
       <c r="G49" s="3">
         <v>186.86</v>
@@ -10806,13 +10806,13 @@
         <v>147</v>
       </c>
       <c r="AJ49" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK49" s="2">
         <v>156</v>
       </c>
       <c r="AL49" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AM49" s="2">
         <v>972</v>
@@ -10821,13 +10821,13 @@
         <v>826</v>
       </c>
       <c r="AO49" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AP49" s="2">
         <v>796</v>
       </c>
       <c r="AQ49" s="2">
-        <v>4885</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="50" spans="2:43">
@@ -11228,7 +11228,7 @@
         <v>991</v>
       </c>
       <c r="F53" s="3">
-        <v>38.61</v>
+        <v>36.5</v>
       </c>
       <c r="G53" s="3">
         <v>147.17</v>
@@ -11484,7 +11484,7 @@
         <v>982</v>
       </c>
       <c r="F55" s="3">
-        <v>44.28</v>
+        <v>40.4</v>
       </c>
       <c r="G55" s="3">
         <v>259.64</v>
@@ -11612,7 +11612,7 @@
         <v>991</v>
       </c>
       <c r="F56" s="3">
-        <v>47.52</v>
+        <v>51.64</v>
       </c>
       <c r="G56" s="3">
         <v>68.66</v>
@@ -11740,7 +11740,7 @@
         <v>987</v>
       </c>
       <c r="F57" s="3">
-        <v>61.01</v>
+        <v>60.26</v>
       </c>
       <c r="G57" s="3">
         <v>87.13</v>
@@ -11824,7 +11824,7 @@
         <v>755</v>
       </c>
       <c r="AH57" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI57" s="2">
         <v>138</v>
@@ -11836,10 +11836,10 @@
         <v>141</v>
       </c>
       <c r="AL57" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AM57" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AN57" s="2">
         <v>646</v>
@@ -11851,7 +11851,7 @@
         <v>720</v>
       </c>
       <c r="AQ57" s="2">
-        <v>3803</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="58" spans="2:43">
@@ -11868,7 +11868,7 @@
         <v>984</v>
       </c>
       <c r="F58" s="3">
-        <v>58.04</v>
+        <v>54.69</v>
       </c>
       <c r="G58" s="3">
         <v>203.89</v>
@@ -12380,7 +12380,7 @@
         <v>985</v>
       </c>
       <c r="F62" s="3">
-        <v>38.13</v>
+        <v>42.61</v>
       </c>
       <c r="G62" s="3">
         <v>125.01</v>
@@ -12508,7 +12508,7 @@
         <v>987</v>
       </c>
       <c r="F63" s="3">
-        <v>53.97</v>
+        <v>56.06</v>
       </c>
       <c r="G63" s="3">
         <v>790.83</v>
@@ -12636,7 +12636,7 @@
         <v>991</v>
       </c>
       <c r="F64" s="3">
-        <v>30.18</v>
+        <v>37.66</v>
       </c>
       <c r="G64" s="3">
         <v>147.66</v>
@@ -12892,7 +12892,7 @@
         <v>985</v>
       </c>
       <c r="F66" s="3">
-        <v>25.57</v>
+        <v>23.63</v>
       </c>
       <c r="G66" s="3">
         <v>48.25</v>
@@ -12955,7 +12955,7 @@
         <v>-0.2551</v>
       </c>
       <c r="AA66" s="5">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AB66" s="5">
         <v>474</v>
@@ -12973,7 +12973,7 @@
         <v>483</v>
       </c>
       <c r="AG66" s="5">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AH66" s="2">
         <v>473</v>
@@ -12988,22 +12988,22 @@
         <v>472</v>
       </c>
       <c r="AL66" s="2">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="AM66" s="2">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="AN66" s="2">
         <v>2172</v>
       </c>
       <c r="AO66" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AP66" s="2">
         <v>2181</v>
       </c>
       <c r="AQ66" s="2">
-        <v>13003</v>
+        <v>13006</v>
       </c>
     </row>
     <row r="67" spans="2:43">
@@ -13020,7 +13020,7 @@
         <v>985</v>
       </c>
       <c r="F67" s="3">
-        <v>38.16</v>
+        <v>44.08</v>
       </c>
       <c r="G67" s="3">
         <v>83.86</v>
@@ -13148,7 +13148,7 @@
         <v>987</v>
       </c>
       <c r="F68" s="3">
-        <v>55.25</v>
+        <v>47.93</v>
       </c>
       <c r="G68" s="3">
         <v>145.77</v>
@@ -13276,7 +13276,7 @@
         <v>983</v>
       </c>
       <c r="F69" s="3">
-        <v>48.7</v>
+        <v>46.34</v>
       </c>
       <c r="G69" s="3">
         <v>111.47</v>
@@ -13404,7 +13404,7 @@
         <v>991</v>
       </c>
       <c r="F70" s="3">
-        <v>40.53</v>
+        <v>39.26</v>
       </c>
       <c r="G70" s="3">
         <v>142.92</v>
@@ -13416,22 +13416,22 @@
         <v>-0.0049</v>
       </c>
       <c r="J70" s="4">
-        <v>-0.0481</v>
+        <v>-0.048</v>
       </c>
       <c r="K70" s="4">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="L70" s="4">
-        <v>0.0339</v>
+        <v>0.0341</v>
       </c>
       <c r="M70" s="4">
-        <v>0.0907</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="N70" s="4">
-        <v>-0.0322</v>
+        <v>-0.032</v>
       </c>
       <c r="O70" s="4">
-        <v>-0.1077</v>
+        <v>-0.1076</v>
       </c>
       <c r="P70" s="4">
         <v>-0.0419</v>
@@ -13440,7 +13440,7 @@
         <v>0.0382</v>
       </c>
       <c r="R70" s="4">
-        <v>0.067</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="S70" s="4">
         <v>-0.120507</v>
@@ -13449,22 +13449,22 @@
         <v>0.206161</v>
       </c>
       <c r="U70" s="4">
-        <v>0.9126879999999999</v>
+        <v>0.914482</v>
       </c>
       <c r="V70" s="4">
-        <v>0.0102</v>
+        <v>0.0103</v>
       </c>
       <c r="W70" s="4">
-        <v>0.0247</v>
+        <v>0.0249</v>
       </c>
       <c r="X70" s="4">
-        <v>-0.0026</v>
+        <v>-0.0024</v>
       </c>
       <c r="Y70" s="4">
-        <v>-0.0038</v>
+        <v>-0.0037</v>
       </c>
       <c r="Z70" s="4">
-        <v>-0.0095</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="AA70" s="5">
         <v>363</v>
@@ -13532,7 +13532,7 @@
         <v>984</v>
       </c>
       <c r="F71" s="3">
-        <v>56.86</v>
+        <v>54.41</v>
       </c>
       <c r="G71" s="3">
         <v>133.84</v>
@@ -14044,7 +14044,7 @@
         <v>983</v>
       </c>
       <c r="F75" s="3">
-        <v>31.49</v>
+        <v>30.83</v>
       </c>
       <c r="G75" s="3">
         <v>24.44</v>
@@ -14172,7 +14172,7 @@
         <v>987</v>
       </c>
       <c r="F76" s="3">
-        <v>49.61</v>
+        <v>47.27</v>
       </c>
       <c r="G76" s="3">
         <v>15.07</v>
@@ -14300,7 +14300,7 @@
         <v>987</v>
       </c>
       <c r="F77" s="3">
-        <v>44.77</v>
+        <v>48.42</v>
       </c>
       <c r="G77" s="3">
         <v>93.84</v>
@@ -14428,7 +14428,7 @@
         <v>982</v>
       </c>
       <c r="F78" s="3">
-        <v>43.43</v>
+        <v>43.02</v>
       </c>
       <c r="G78" s="3">
         <v>27.91</v>
@@ -14518,13 +14518,13 @@
         <v>146</v>
       </c>
       <c r="AJ78" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK78" s="2">
         <v>106</v>
       </c>
       <c r="AL78" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="AM78" s="2">
         <v>1203</v>
@@ -14533,13 +14533,13 @@
         <v>865</v>
       </c>
       <c r="AO78" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AP78" s="2">
         <v>621</v>
       </c>
       <c r="AQ78" s="2">
-        <v>5245</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="79" spans="2:43">
@@ -14937,7 +14937,7 @@
         <v>985</v>
       </c>
       <c r="F82" s="3">
-        <v>54.67</v>
+        <v>54.33</v>
       </c>
       <c r="G82" s="3">
         <v>213.83</v>
@@ -15000,7 +15000,7 @@
         <v>-0.008399999999999999</v>
       </c>
       <c r="AA82" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB82" s="5">
         <v>206</v>
@@ -15018,7 +15018,7 @@
         <v>376</v>
       </c>
       <c r="AG82" s="5">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AH82" s="2">
         <v>273</v>
@@ -15033,22 +15033,22 @@
         <v>332</v>
       </c>
       <c r="AL82" s="2">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="AM82" s="2">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AN82" s="2">
         <v>1275</v>
       </c>
       <c r="AO82" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AP82" s="2">
         <v>1502</v>
       </c>
       <c r="AQ82" s="2">
-        <v>7709</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="83" spans="2:43">
@@ -15705,7 +15705,7 @@
         <v>987</v>
       </c>
       <c r="F88" s="3">
-        <v>61.3</v>
+        <v>51.4</v>
       </c>
       <c r="G88" s="3">
         <v>80.54000000000001</v>
@@ -15732,10 +15732,10 @@
         <v>0.5848</v>
       </c>
       <c r="O88" s="4">
-        <v>0.5332</v>
+        <v>0.5333</v>
       </c>
       <c r="P88" s="4">
-        <v>0.1247</v>
+        <v>0.1248</v>
       </c>
       <c r="Q88" s="4">
         <v>0.1714</v>
@@ -15744,7 +15744,7 @@
         <v>0.115</v>
       </c>
       <c r="S88" s="4">
-        <v>0.422689</v>
+        <v>0.423069</v>
       </c>
       <c r="T88" s="4">
         <v>1.205597</v>
@@ -15833,7 +15833,7 @@
         <v>986</v>
       </c>
       <c r="F89" s="3">
-        <v>47.79</v>
+        <v>52.62</v>
       </c>
       <c r="G89" s="3">
         <v>468.3</v>
@@ -16345,7 +16345,7 @@
         <v>987</v>
       </c>
       <c r="F93" s="3">
-        <v>36.42</v>
+        <v>38.11</v>
       </c>
       <c r="G93" s="3">
         <v>118.29</v>
@@ -16601,7 +16601,7 @@
         <v>990</v>
       </c>
       <c r="F95" s="3">
-        <v>36.45</v>
+        <v>34.34</v>
       </c>
       <c r="G95" s="3">
         <v>46.39</v>
@@ -17241,7 +17241,7 @@
         <v>982</v>
       </c>
       <c r="F100" s="3">
-        <v>74.33</v>
+        <v>61.26</v>
       </c>
       <c r="G100" s="3">
         <v>265.42</v>
@@ -17328,31 +17328,31 @@
         <v>39</v>
       </c>
       <c r="AI100" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ100" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK100" s="2">
         <v>35</v>
       </c>
       <c r="AL100" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM100" s="2">
         <v>399</v>
       </c>
       <c r="AN100" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO100" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP100" s="2">
         <v>204</v>
       </c>
       <c r="AQ100" s="2">
-        <v>1654</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="101" spans="2:43">
@@ -17497,7 +17497,7 @@
         <v>987</v>
       </c>
       <c r="F102" s="3">
-        <v>51.26</v>
+        <v>52.11</v>
       </c>
       <c r="G102" s="3">
         <v>487.46</v>
@@ -17625,7 +17625,7 @@
         <v>989</v>
       </c>
       <c r="F103" s="3">
-        <v>45.84</v>
+        <v>42.06</v>
       </c>
       <c r="G103" s="3">
         <v>78.90000000000001</v>
@@ -17718,10 +17718,10 @@
         <v>139</v>
       </c>
       <c r="AK103" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL103" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AM103" s="2">
         <v>754</v>
@@ -17733,10 +17733,10 @@
         <v>782</v>
       </c>
       <c r="AP103" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AQ103" s="2">
-        <v>3365</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="104" spans="2:43">
@@ -17753,7 +17753,7 @@
         <v>987</v>
       </c>
       <c r="F104" s="3">
-        <v>23.93</v>
+        <v>28.24</v>
       </c>
       <c r="G104" s="3">
         <v>146.98</v>
@@ -18009,7 +18009,7 @@
         <v>982</v>
       </c>
       <c r="F106" s="3">
-        <v>67.51000000000001</v>
+        <v>55.88</v>
       </c>
       <c r="G106" s="3">
         <v>232.91</v>
@@ -18224,7 +18224,7 @@
         <v>50</v>
       </c>
       <c r="AI107" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AJ107" s="2">
         <v>146</v>
@@ -18233,13 +18233,13 @@
         <v>46</v>
       </c>
       <c r="AL107" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AM107" s="2">
         <v>793</v>
       </c>
       <c r="AN107" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AO107" s="2">
         <v>781</v>
@@ -18248,7 +18248,7 @@
         <v>281</v>
       </c>
       <c r="AQ107" s="2">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="108" spans="2:43">
@@ -18777,7 +18777,7 @@
         <v>986</v>
       </c>
       <c r="F112" s="3">
-        <v>58.99</v>
+        <v>51.52</v>
       </c>
       <c r="G112" s="3">
         <v>111.04</v>
@@ -18905,7 +18905,7 @@
         <v>987</v>
       </c>
       <c r="F113" s="3">
-        <v>44.34</v>
+        <v>42.98</v>
       </c>
       <c r="G113" s="3">
         <v>46.43</v>
@@ -19033,7 +19033,7 @@
         <v>982</v>
       </c>
       <c r="F114" s="3">
-        <v>81.43000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="G114" s="3">
         <v>243.55</v>
@@ -19245,7 +19245,7 @@
         <v>2375</v>
       </c>
       <c r="AH115" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI115" s="2">
         <v>413</v>
@@ -19257,10 +19257,10 @@
         <v>395</v>
       </c>
       <c r="AL115" s="2">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="AM115" s="2">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="AN115" s="2">
         <v>1935</v>
@@ -19272,7 +19272,7 @@
         <v>1840</v>
       </c>
       <c r="AQ115" s="2">
-        <v>11894</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="116" spans="2:43">
@@ -19417,7 +19417,7 @@
         <v>990</v>
       </c>
       <c r="F117" s="3">
-        <v>41.59</v>
+        <v>37.48</v>
       </c>
       <c r="G117" s="3">
         <v>30.22</v>
@@ -19801,7 +19801,7 @@
         <v>984</v>
       </c>
       <c r="F120" s="3">
-        <v>67.68000000000001</v>
+        <v>61.44</v>
       </c>
       <c r="G120" s="3">
         <v>66.87</v>
@@ -19929,7 +19929,7 @@
         <v>984</v>
       </c>
       <c r="F121" s="3">
-        <v>44.38</v>
+        <v>43.85</v>
       </c>
       <c r="G121" s="3">
         <v>258.64</v>
@@ -20057,7 +20057,7 @@
         <v>986</v>
       </c>
       <c r="F122" s="3">
-        <v>66.43000000000001</v>
+        <v>64.38</v>
       </c>
       <c r="G122" s="3">
         <v>251.88</v>
@@ -20313,7 +20313,7 @@
         <v>984</v>
       </c>
       <c r="F124" s="3">
-        <v>54.26</v>
+        <v>56.34</v>
       </c>
       <c r="G124" s="3">
         <v>32.13</v>
@@ -20379,7 +20379,7 @@
         <v>114</v>
       </c>
       <c r="AB124" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC124" s="5">
         <v>171</v>
@@ -20394,7 +20394,7 @@
         <v>168</v>
       </c>
       <c r="AG124" s="5">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AH124" s="2">
         <v>105</v>
@@ -20409,22 +20409,22 @@
         <v>124</v>
       </c>
       <c r="AL124" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AM124" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AN124" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AO124" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AP124" s="2">
         <v>667</v>
       </c>
       <c r="AQ124" s="2">
-        <v>4205</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="125" spans="2:43">
@@ -20441,7 +20441,7 @@
         <v>990</v>
       </c>
       <c r="F125" s="3">
-        <v>48.24</v>
+        <v>40.86</v>
       </c>
       <c r="G125" s="3">
         <v>16.55</v>
@@ -20569,7 +20569,7 @@
         <v>987</v>
       </c>
       <c r="F126" s="3">
-        <v>62.44</v>
+        <v>59.78</v>
       </c>
       <c r="G126" s="3">
         <v>32.85</v>
@@ -20697,7 +20697,7 @@
         <v>986</v>
       </c>
       <c r="F127" s="3">
-        <v>48.2</v>
+        <v>50.76</v>
       </c>
       <c r="G127" s="3">
         <v>291.12</v>
@@ -20825,7 +20825,7 @@
         <v>990</v>
       </c>
       <c r="F128" s="3">
-        <v>64.36</v>
+        <v>57.18</v>
       </c>
       <c r="G128" s="3">
         <v>36.12</v>
@@ -20953,7 +20953,7 @@
         <v>987</v>
       </c>
       <c r="F129" s="3">
-        <v>47.51</v>
+        <v>48.89</v>
       </c>
       <c r="G129" s="3">
         <v>79.45999999999999</v>
@@ -21337,7 +21337,7 @@
         <v>986</v>
       </c>
       <c r="F132" s="3">
-        <v>59.16</v>
+        <v>55.37</v>
       </c>
       <c r="G132" s="3">
         <v>244.85</v>
@@ -21465,7 +21465,7 @@
         <v>982</v>
       </c>
       <c r="F133" s="3">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="G133" s="3">
         <v>449.31</v>
@@ -21849,7 +21849,7 @@
         <v>988</v>
       </c>
       <c r="F136" s="3">
-        <v>58.74</v>
+        <v>55.39</v>
       </c>
       <c r="G136" s="3">
         <v>96.23</v>
@@ -21915,7 +21915,7 @@
         <v>102</v>
       </c>
       <c r="AB136" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC136" s="5">
         <v>204</v>
@@ -21930,7 +21930,7 @@
         <v>119</v>
       </c>
       <c r="AG136" s="5">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AH136" s="2">
         <v>166</v>
@@ -21945,22 +21945,22 @@
         <v>153</v>
       </c>
       <c r="AL136" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AM136" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AN136" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AO136" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP136" s="2">
         <v>826</v>
       </c>
       <c r="AQ136" s="2">
-        <v>4890</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="137" spans="2:43">
@@ -22105,7 +22105,7 @@
         <v>990</v>
       </c>
       <c r="F138" s="3">
-        <v>37.85</v>
+        <v>33.97</v>
       </c>
       <c r="G138" s="3">
         <v>40.08</v>
@@ -22233,7 +22233,7 @@
         <v>984</v>
       </c>
       <c r="F139" s="3">
-        <v>28.33</v>
+        <v>23.5</v>
       </c>
       <c r="G139" s="3">
         <v>222.03</v>
@@ -22427,7 +22427,7 @@
         <v>28</v>
       </c>
       <c r="AB140" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC140" s="5">
         <v>245</v>
@@ -22442,7 +22442,7 @@
         <v>319</v>
       </c>
       <c r="AG140" s="5">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AH140" s="2">
         <v>274</v>
@@ -22457,22 +22457,22 @@
         <v>344</v>
       </c>
       <c r="AL140" s="2">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="AM140" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="AN140" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="AO140" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AP140" s="2">
         <v>1633</v>
       </c>
       <c r="AQ140" s="2">
-        <v>7107</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="141" spans="2:43">
@@ -22489,7 +22489,7 @@
         <v>991</v>
       </c>
       <c r="F141" s="3">
-        <v>26.81</v>
+        <v>28.11</v>
       </c>
       <c r="G141" s="3">
         <v>73.09999999999999</v>
@@ -22579,13 +22579,13 @@
         <v>354</v>
       </c>
       <c r="AJ141" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK141" s="2">
         <v>334</v>
       </c>
       <c r="AL141" s="2">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="AM141" s="2">
         <v>2098</v>
@@ -22594,13 +22594,13 @@
         <v>1765</v>
       </c>
       <c r="AO141" s="2">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="AP141" s="2">
         <v>1633</v>
       </c>
       <c r="AQ141" s="2">
-        <v>10516</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="142" spans="2:43">
@@ -22617,7 +22617,7 @@
         <v>990</v>
       </c>
       <c r="F142" s="3">
-        <v>58.1</v>
+        <v>58.05</v>
       </c>
       <c r="G142" s="3">
         <v>55.85</v>
@@ -23001,7 +23001,7 @@
         <v>982</v>
       </c>
       <c r="F145" s="3">
-        <v>33.13</v>
+        <v>38.43</v>
       </c>
       <c r="G145" s="3">
         <v>63.15</v>
@@ -23091,13 +23091,13 @@
         <v>448</v>
       </c>
       <c r="AJ145" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AK145" s="2">
         <v>455</v>
       </c>
       <c r="AL145" s="2">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="AM145" s="2">
         <v>2441</v>
@@ -23106,13 +23106,13 @@
         <v>2095</v>
       </c>
       <c r="AO145" s="2">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="AP145" s="2">
         <v>2235</v>
       </c>
       <c r="AQ145" s="2">
-        <v>12554</v>
+        <v>12556</v>
       </c>
     </row>
     <row r="146" spans="2:43">
@@ -23257,7 +23257,7 @@
         <v>984</v>
       </c>
       <c r="F147" s="3">
-        <v>38.42</v>
+        <v>41.38</v>
       </c>
       <c r="G147" s="3">
         <v>121.65</v>
@@ -23769,7 +23769,7 @@
         <v>987</v>
       </c>
       <c r="F151" s="3">
-        <v>37.57</v>
+        <v>49.85</v>
       </c>
       <c r="G151" s="3">
         <v>74.05</v>
@@ -23897,7 +23897,7 @@
         <v>987</v>
       </c>
       <c r="F152" s="3">
-        <v>38.2</v>
+        <v>36.36</v>
       </c>
       <c r="G152" s="3">
         <v>24.36</v>
@@ -24025,7 +24025,7 @@
         <v>983</v>
       </c>
       <c r="F153" s="3">
-        <v>63.16</v>
+        <v>65.77</v>
       </c>
       <c r="G153" s="3">
         <v>58.16</v>
@@ -24037,25 +24037,25 @@
         <v>0.0145</v>
       </c>
       <c r="J153" s="4">
-        <v>0.0664</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="K153" s="4">
-        <v>0.043</v>
+        <v>0.0432</v>
       </c>
       <c r="L153" s="4">
-        <v>0.1235</v>
+        <v>0.1237</v>
       </c>
       <c r="M153" s="4">
-        <v>0.2658</v>
+        <v>0.2661</v>
       </c>
       <c r="N153" s="4">
-        <v>0.2843</v>
+        <v>0.2846</v>
       </c>
       <c r="O153" s="4">
-        <v>0.4701</v>
+        <v>0.4704</v>
       </c>
       <c r="P153" s="4">
-        <v>0.2967</v>
+        <v>0.2968</v>
       </c>
       <c r="Q153" s="4">
         <v>0.1965</v>
@@ -24064,7 +24064,7 @@
         <v>993</v>
       </c>
       <c r="S153" s="4">
-        <v>1.180311</v>
+        <v>1.180816</v>
       </c>
       <c r="T153" s="4">
         <v>1.452243</v>
@@ -24073,19 +24073,19 @@
         <v>993</v>
       </c>
       <c r="V153" s="4">
-        <v>0.1566</v>
+        <v>0.1568</v>
       </c>
       <c r="W153" s="4">
-        <v>0.1791</v>
+        <v>0.1794</v>
       </c>
       <c r="X153" s="4">
-        <v>0.0776</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="Y153" s="4">
-        <v>0.2859</v>
+        <v>0.2862</v>
       </c>
       <c r="Z153" s="4">
-        <v>0.2088</v>
+        <v>0.2091</v>
       </c>
       <c r="AA153" s="5">
         <v>34</v>
@@ -24281,7 +24281,7 @@
         <v>990</v>
       </c>
       <c r="F155" s="3">
-        <v>63.19</v>
+        <v>63.16</v>
       </c>
       <c r="G155" s="3">
         <v>110.06</v>
@@ -24293,22 +24293,22 @@
         <v>-0.0002</v>
       </c>
       <c r="J155" s="4">
-        <v>0.0896</v>
+        <v>0.0897</v>
       </c>
       <c r="K155" s="4">
-        <v>0.0243</v>
+        <v>0.0244</v>
       </c>
       <c r="L155" s="4">
-        <v>0.1039</v>
+        <v>0.104</v>
       </c>
       <c r="M155" s="4">
-        <v>0.0608</v>
+        <v>0.0609</v>
       </c>
       <c r="N155" s="4">
-        <v>0.1348</v>
+        <v>0.1349</v>
       </c>
       <c r="O155" s="4">
-        <v>0.324</v>
+        <v>0.3241</v>
       </c>
       <c r="P155" s="4">
         <v>0.0747</v>
@@ -24329,19 +24329,19 @@
         <v>993</v>
       </c>
       <c r="V155" s="4">
-        <v>0.0827</v>
+        <v>0.0828</v>
       </c>
       <c r="W155" s="4">
-        <v>0.0809</v>
+        <v>0.081</v>
       </c>
       <c r="X155" s="4">
-        <v>0.0726</v>
+        <v>0.0727</v>
       </c>
       <c r="Y155" s="4">
-        <v>0.1559</v>
+        <v>0.156</v>
       </c>
       <c r="Z155" s="4">
-        <v>0.1229</v>
+        <v>0.123</v>
       </c>
       <c r="AA155" s="5">
         <v>19</v>
@@ -24409,7 +24409,7 @@
         <v>986</v>
       </c>
       <c r="F156" s="3">
-        <v>25.87</v>
+        <v>25.03</v>
       </c>
       <c r="G156" s="3">
         <v>208.46</v>
@@ -24537,7 +24537,7 @@
         <v>987</v>
       </c>
       <c r="F157" s="3">
-        <v>56.27</v>
+        <v>59.58</v>
       </c>
       <c r="G157" s="3">
         <v>1981.81</v>
@@ -24731,7 +24731,7 @@
         <v>24</v>
       </c>
       <c r="AB158" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC158" s="5">
         <v>76</v>
@@ -24746,7 +24746,7 @@
         <v>116</v>
       </c>
       <c r="AG158" s="5">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AH158" s="2">
         <v>97</v>
@@ -24761,22 +24761,22 @@
         <v>113</v>
       </c>
       <c r="AL158" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AM158" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN158" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO158" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP158" s="2">
         <v>582</v>
       </c>
       <c r="AQ158" s="2">
-        <v>2908</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="159" spans="2:43">
@@ -24793,7 +24793,7 @@
         <v>991</v>
       </c>
       <c r="F159" s="3">
-        <v>40.39</v>
+        <v>42.51</v>
       </c>
       <c r="G159" s="3">
         <v>99.77</v>
@@ -24921,7 +24921,7 @@
         <v>984</v>
       </c>
       <c r="F160" s="3">
-        <v>44.97</v>
+        <v>47.91</v>
       </c>
       <c r="G160" s="3">
         <v>66.23</v>
@@ -25049,7 +25049,7 @@
         <v>984</v>
       </c>
       <c r="F161" s="3">
-        <v>30.16</v>
+        <v>29.51</v>
       </c>
       <c r="G161" s="3">
         <v>36.31</v>
@@ -25177,7 +25177,7 @@
         <v>982</v>
       </c>
       <c r="F162" s="3">
-        <v>36.41</v>
+        <v>32.77</v>
       </c>
       <c r="G162" s="3">
         <v>222.78</v>
@@ -25398,10 +25398,10 @@
         <v>332</v>
       </c>
       <c r="AK163" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL163" s="2">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AM163" s="2">
         <v>1533</v>
@@ -25413,10 +25413,10 @@
         <v>1222</v>
       </c>
       <c r="AP163" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AQ163" s="2">
-        <v>7603</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="164" spans="2:43">
@@ -25561,7 +25561,7 @@
         <v>989</v>
       </c>
       <c r="F165" s="3">
-        <v>42.07</v>
+        <v>39.33</v>
       </c>
       <c r="G165" s="3">
         <v>61.49</v>
@@ -25817,7 +25817,7 @@
         <v>982</v>
       </c>
       <c r="F167" s="3">
-        <v>46.35</v>
+        <v>41.82</v>
       </c>
       <c r="G167" s="3">
         <v>150.92</v>
@@ -25907,13 +25907,13 @@
         <v>144</v>
       </c>
       <c r="AJ167" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK167" s="2">
         <v>135</v>
       </c>
       <c r="AL167" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="AM167" s="2">
         <v>1217</v>
@@ -25922,13 +25922,13 @@
         <v>898</v>
       </c>
       <c r="AO167" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="AP167" s="2">
         <v>729</v>
       </c>
       <c r="AQ167" s="2">
-        <v>5774</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="168" spans="2:43">
@@ -26011,7 +26011,7 @@
         <v>268</v>
       </c>
       <c r="AB168" s="5">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC168" s="5">
         <v>192</v>
@@ -26026,7 +26026,7 @@
         <v>188</v>
       </c>
       <c r="AG168" s="5">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AH168" s="2">
         <v>187</v>
@@ -26041,22 +26041,22 @@
         <v>190</v>
       </c>
       <c r="AL168" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="AM168" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AN168" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AO168" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AP168" s="2">
         <v>958</v>
       </c>
       <c r="AQ168" s="2">
-        <v>5842</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="169" spans="2:43">
@@ -26713,7 +26713,7 @@
         <v>990</v>
       </c>
       <c r="F174" s="3">
-        <v>32.84</v>
+        <v>35.03</v>
       </c>
       <c r="G174" s="3">
         <v>80.27</v>
@@ -26841,7 +26841,7 @@
         <v>984</v>
       </c>
       <c r="F175" s="3">
-        <v>44.12</v>
+        <v>38.33</v>
       </c>
       <c r="G175" s="3">
         <v>297.87</v>
@@ -27416,7 +27416,7 @@
         <v>-0.0061</v>
       </c>
       <c r="AA179" s="5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB179" s="5">
         <v>232</v>
@@ -27434,7 +27434,7 @@
         <v>151</v>
       </c>
       <c r="AG179" s="5">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="AH179" s="2">
         <v>389</v>
@@ -27449,22 +27449,22 @@
         <v>321</v>
       </c>
       <c r="AL179" s="2">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="AM179" s="2">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="AN179" s="2">
         <v>1791</v>
       </c>
       <c r="AO179" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AP179" s="2">
         <v>1640</v>
       </c>
       <c r="AQ179" s="2">
-        <v>10321</v>
+        <v>10324</v>
       </c>
     </row>
     <row r="180" spans="2:43">
@@ -27481,7 +27481,7 @@
         <v>990</v>
       </c>
       <c r="F180" s="3">
-        <v>64.90000000000001</v>
+        <v>60.69</v>
       </c>
       <c r="G180" s="3">
         <v>14.75</v>
@@ -27547,7 +27547,7 @@
         <v>217</v>
       </c>
       <c r="AB180" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC180" s="5">
         <v>68</v>
@@ -27562,7 +27562,7 @@
         <v>310</v>
       </c>
       <c r="AG180" s="5">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AH180" s="2">
         <v>161</v>
@@ -27577,22 +27577,22 @@
         <v>209</v>
       </c>
       <c r="AL180" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AM180" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AN180" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AO180" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP180" s="2">
         <v>1030</v>
       </c>
       <c r="AQ180" s="2">
-        <v>4789</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="181" spans="2:43">
@@ -27672,7 +27672,7 @@
         <v>-0.0094</v>
       </c>
       <c r="AA181" s="5">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB181" s="5">
         <v>434</v>
@@ -27690,7 +27690,7 @@
         <v>271</v>
       </c>
       <c r="AG181" s="5">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="AH181" s="2">
         <v>335</v>
@@ -27705,22 +27705,22 @@
         <v>305</v>
       </c>
       <c r="AL181" s="2">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="AM181" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="AN181" s="2">
         <v>1724</v>
       </c>
       <c r="AO181" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AP181" s="2">
         <v>1524</v>
       </c>
       <c r="AQ181" s="2">
-        <v>9872</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="182" spans="2:43">
@@ -27737,7 +27737,7 @@
         <v>990</v>
       </c>
       <c r="F182" s="3">
-        <v>54.79</v>
+        <v>49.11</v>
       </c>
       <c r="G182" s="3">
         <v>28.98</v>
@@ -27993,7 +27993,7 @@
         <v>990</v>
       </c>
       <c r="F184" s="3">
-        <v>45.72</v>
+        <v>38.87</v>
       </c>
       <c r="G184" s="3">
         <v>76.66</v>
@@ -28121,7 +28121,7 @@
         <v>990</v>
       </c>
       <c r="F185" s="3">
-        <v>63.62</v>
+        <v>55.43</v>
       </c>
       <c r="G185" s="3">
         <v>54.73</v>
@@ -28249,7 +28249,7 @@
         <v>984</v>
       </c>
       <c r="F186" s="3">
-        <v>36.41</v>
+        <v>33.69</v>
       </c>
       <c r="G186" s="3">
         <v>75.03</v>
@@ -28377,7 +28377,7 @@
         <v>989</v>
       </c>
       <c r="F187" s="3">
-        <v>64.81</v>
+        <v>50.48</v>
       </c>
       <c r="G187" s="3">
         <v>64.81999999999999</v>
@@ -28505,7 +28505,7 @@
         <v>992</v>
       </c>
       <c r="F188" s="3">
-        <v>76.79000000000001</v>
+        <v>77.06</v>
       </c>
       <c r="G188" s="3">
         <v>58.9</v>
@@ -28633,7 +28633,7 @@
         <v>984</v>
       </c>
       <c r="F189" s="3">
-        <v>76.61</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="G189" s="3">
         <v>17.14</v>
@@ -28645,25 +28645,25 @@
         <v>-0.0092</v>
       </c>
       <c r="J189" s="4">
-        <v>-0.0161</v>
+        <v>-0.0166</v>
       </c>
       <c r="K189" s="4">
-        <v>0.2732</v>
+        <v>0.2725</v>
       </c>
       <c r="L189" s="4">
-        <v>0.344</v>
+        <v>0.3432</v>
       </c>
       <c r="M189" s="4">
-        <v>0.5955</v>
+        <v>0.5946</v>
       </c>
       <c r="N189" s="4">
-        <v>0.9313</v>
+        <v>0.9301</v>
       </c>
       <c r="O189" s="4">
-        <v>1.3759</v>
+        <v>1.3745</v>
       </c>
       <c r="P189" s="4">
-        <v>0.3239</v>
+        <v>0.3236</v>
       </c>
       <c r="Q189" s="4" t="s">
         <v>993</v>
@@ -28672,7 +28672,7 @@
         <v>993</v>
       </c>
       <c r="S189" s="4">
-        <v>1.320414</v>
+        <v>1.318837</v>
       </c>
       <c r="T189" s="4" t="s">
         <v>993</v>
@@ -28681,22 +28681,22 @@
         <v>993</v>
       </c>
       <c r="V189" s="4">
-        <v>0.4256</v>
+        <v>0.4248</v>
       </c>
       <c r="W189" s="4">
-        <v>0.536</v>
+        <v>0.5351</v>
       </c>
       <c r="X189" s="4">
-        <v>0.2004</v>
+        <v>0.1997</v>
       </c>
       <c r="Y189" s="4">
-        <v>0.8117</v>
+        <v>0.8106</v>
       </c>
       <c r="Z189" s="4">
-        <v>0.584</v>
+        <v>0.5831</v>
       </c>
       <c r="AA189" s="5">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AB189" s="5">
         <v>3</v>
@@ -28714,7 +28714,7 @@
         <v>16</v>
       </c>
       <c r="AG189" s="5">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AH189" s="2">
         <v>31</v>
@@ -28729,22 +28729,22 @@
         <v>29</v>
       </c>
       <c r="AL189" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AM189" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AN189" s="2">
         <v>150</v>
       </c>
       <c r="AO189" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AP189" s="2">
         <v>161</v>
       </c>
       <c r="AQ189" s="2">
-        <v>1466</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="190" spans="2:43">
@@ -28761,7 +28761,7 @@
         <v>984</v>
       </c>
       <c r="F190" s="3">
-        <v>36.46</v>
+        <v>38.27</v>
       </c>
       <c r="G190" s="3">
         <v>126.92</v>
@@ -28830,7 +28830,7 @@
         <v>450</v>
       </c>
       <c r="AC190" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD190" s="5">
         <v>208</v>
@@ -28842,7 +28842,7 @@
         <v>411</v>
       </c>
       <c r="AG190" s="5">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="AH190" s="2">
         <v>317</v>
@@ -28857,22 +28857,22 @@
         <v>342</v>
       </c>
       <c r="AL190" s="2">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="AM190" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="AN190" s="2">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AO190" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AP190" s="2">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AQ190" s="2">
-        <v>9821</v>
+        <v>9826</v>
       </c>
     </row>
     <row r="191" spans="2:43">
@@ -28889,7 +28889,7 @@
         <v>990</v>
       </c>
       <c r="F191" s="3">
-        <v>52.55</v>
+        <v>49.02</v>
       </c>
       <c r="G191" s="3">
         <v>50.85</v>
@@ -29017,7 +29017,7 @@
         <v>991</v>
       </c>
       <c r="F192" s="3">
-        <v>41.15</v>
+        <v>44.31</v>
       </c>
       <c r="G192" s="3">
         <v>102.27</v>
@@ -29083,7 +29083,7 @@
         <v>199</v>
       </c>
       <c r="AB192" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC192" s="5">
         <v>237</v>
@@ -29098,7 +29098,7 @@
         <v>167</v>
       </c>
       <c r="AG192" s="5">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="AH192" s="2">
         <v>243</v>
@@ -29113,22 +29113,22 @@
         <v>217</v>
       </c>
       <c r="AL192" s="2">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AM192" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AN192" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AO192" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AP192" s="2">
         <v>1120</v>
       </c>
       <c r="AQ192" s="2">
-        <v>6678</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="193" spans="2:43">
@@ -29211,7 +29211,7 @@
         <v>253</v>
       </c>
       <c r="AB193" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC193" s="5">
         <v>18</v>
@@ -29226,7 +29226,7 @@
         <v>85</v>
       </c>
       <c r="AG193" s="5">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AH193" s="2">
         <v>55</v>
@@ -29241,22 +29241,22 @@
         <v>59</v>
       </c>
       <c r="AL193" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AM193" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AN193" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO193" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AP193" s="2">
         <v>308</v>
       </c>
       <c r="AQ193" s="2">
-        <v>2743</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="194" spans="2:43">
@@ -29273,7 +29273,7 @@
         <v>984</v>
       </c>
       <c r="F194" s="3">
-        <v>35.22</v>
+        <v>42.99</v>
       </c>
       <c r="G194" s="3">
         <v>383.08</v>
@@ -29401,7 +29401,7 @@
         <v>986</v>
       </c>
       <c r="F195" s="3">
-        <v>57.09</v>
+        <v>52</v>
       </c>
       <c r="G195" s="3">
         <v>304.2</v>
@@ -29529,7 +29529,7 @@
         <v>982</v>
       </c>
       <c r="F196" s="3">
-        <v>63.4</v>
+        <v>59.11</v>
       </c>
       <c r="G196" s="3">
         <v>300.85</v>
@@ -29785,7 +29785,7 @@
         <v>986</v>
       </c>
       <c r="F198" s="3">
-        <v>64.78</v>
+        <v>61.3</v>
       </c>
       <c r="G198" s="3">
         <v>175.61</v>
@@ -30041,7 +30041,7 @@
         <v>990</v>
       </c>
       <c r="F200" s="3">
-        <v>53.97</v>
+        <v>50.04</v>
       </c>
       <c r="G200" s="3">
         <v>73.73999999999999</v>
@@ -30107,7 +30107,7 @@
         <v>243</v>
       </c>
       <c r="AB200" s="5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC200" s="5">
         <v>228</v>
@@ -30122,7 +30122,7 @@
         <v>220</v>
       </c>
       <c r="AG200" s="5">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AH200" s="2">
         <v>195</v>
@@ -30137,22 +30137,22 @@
         <v>204</v>
       </c>
       <c r="AL200" s="2">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="AM200" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AN200" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AO200" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AP200" s="2">
         <v>1056</v>
       </c>
       <c r="AQ200" s="2">
-        <v>6181</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="201" spans="2:43">
@@ -30169,7 +30169,7 @@
         <v>984</v>
       </c>
       <c r="F201" s="3">
-        <v>37.76</v>
+        <v>43.28</v>
       </c>
       <c r="G201" s="3">
         <v>299.21</v>
@@ -30297,7 +30297,7 @@
         <v>983</v>
       </c>
       <c r="F202" s="3">
-        <v>55.48</v>
+        <v>50.03</v>
       </c>
       <c r="G202" s="3">
         <v>608.6799999999999</v>
@@ -30553,7 +30553,7 @@
         <v>982</v>
       </c>
       <c r="F204" s="3">
-        <v>47.41</v>
+        <v>41.11</v>
       </c>
       <c r="G204" s="3">
         <v>887.5700000000001</v>
@@ -30744,7 +30744,7 @@
         <v>-0.0051</v>
       </c>
       <c r="AA205" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB205" s="5">
         <v>250</v>
@@ -30762,7 +30762,7 @@
         <v>263</v>
       </c>
       <c r="AG205" s="5">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="AH205" s="2">
         <v>329</v>
@@ -30777,22 +30777,22 @@
         <v>320</v>
       </c>
       <c r="AL205" s="2">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="AM205" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="AN205" s="2">
         <v>1580</v>
       </c>
       <c r="AO205" s="2">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AP205" s="2">
         <v>1581</v>
       </c>
       <c r="AQ205" s="2">
-        <v>9580</v>
+        <v>9583</v>
       </c>
     </row>
     <row r="206" spans="2:43">
@@ -30809,7 +30809,7 @@
         <v>988</v>
       </c>
       <c r="F206" s="3">
-        <v>51.54</v>
+        <v>51.14</v>
       </c>
       <c r="G206" s="3">
         <v>81.69</v>
@@ -31065,7 +31065,7 @@
         <v>983</v>
       </c>
       <c r="F208" s="3">
-        <v>41.44</v>
+        <v>40.54</v>
       </c>
       <c r="G208" s="3">
         <v>39.32</v>
@@ -31321,7 +31321,7 @@
         <v>987</v>
       </c>
       <c r="F210" s="3">
-        <v>53.32</v>
+        <v>54.42</v>
       </c>
       <c r="G210" s="3">
         <v>499.21</v>
@@ -31399,10 +31399,10 @@
         <v>310</v>
       </c>
       <c r="AF210" s="5">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG210" s="5">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="AH210" s="2">
         <v>316</v>
@@ -31417,7 +31417,7 @@
         <v>343</v>
       </c>
       <c r="AL210" s="2">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="AM210" s="2">
         <v>1579</v>
@@ -31429,10 +31429,10 @@
         <v>895</v>
       </c>
       <c r="AP210" s="2">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="AQ210" s="2">
-        <v>8485</v>
+        <v>8483</v>
       </c>
     </row>
     <row r="211" spans="2:43">
@@ -31577,7 +31577,7 @@
         <v>986</v>
       </c>
       <c r="F212" s="3">
-        <v>57.98</v>
+        <v>51.45</v>
       </c>
       <c r="G212" s="3">
         <v>377.72</v>
@@ -31705,7 +31705,7 @@
         <v>990</v>
       </c>
       <c r="F213" s="3">
-        <v>52.36</v>
+        <v>50.24</v>
       </c>
       <c r="G213" s="3">
         <v>61.25</v>
@@ -31833,7 +31833,7 @@
         <v>986</v>
       </c>
       <c r="F214" s="3">
-        <v>48.67</v>
+        <v>46.69</v>
       </c>
       <c r="G214" s="3">
         <v>196.46</v>
@@ -31896,7 +31896,7 @@
         <v>-0.0218</v>
       </c>
       <c r="AA214" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AB214" s="5">
         <v>196</v>
@@ -31914,7 +31914,7 @@
         <v>296</v>
       </c>
       <c r="AG214" s="5">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="AH214" s="2">
         <v>350</v>
@@ -31929,22 +31929,22 @@
         <v>348</v>
       </c>
       <c r="AL214" s="2">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="AM214" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AN214" s="2">
         <v>1593</v>
       </c>
       <c r="AO214" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AP214" s="2">
         <v>1695</v>
       </c>
       <c r="AQ214" s="2">
-        <v>9488</v>
+        <v>9491</v>
       </c>
     </row>
     <row r="215" spans="2:43">
@@ -31961,7 +31961,7 @@
         <v>992</v>
       </c>
       <c r="F215" s="3">
-        <v>59.79</v>
+        <v>59</v>
       </c>
       <c r="G215" s="3">
         <v>124</v>
@@ -32217,7 +32217,7 @@
         <v>985</v>
       </c>
       <c r="F217" s="3">
-        <v>68.59</v>
+        <v>72.97</v>
       </c>
       <c r="G217" s="3">
         <v>471.68</v>
@@ -32473,7 +32473,7 @@
         <v>985</v>
       </c>
       <c r="F219" s="3">
-        <v>66.84</v>
+        <v>71.97</v>
       </c>
       <c r="G219" s="3">
         <v>841.67</v>
@@ -32601,7 +32601,7 @@
         <v>984</v>
       </c>
       <c r="F220" s="3">
-        <v>35.47</v>
+        <v>34.36</v>
       </c>
       <c r="G220" s="3">
         <v>239.93</v>
@@ -32729,7 +32729,7 @@
         <v>988</v>
       </c>
       <c r="F221" s="3">
-        <v>39.22</v>
+        <v>37.66</v>
       </c>
       <c r="G221" s="3">
         <v>92.73</v>
@@ -32857,7 +32857,7 @@
         <v>988</v>
       </c>
       <c r="F222" s="3">
-        <v>42.74</v>
+        <v>43.48</v>
       </c>
       <c r="G222" s="3">
         <v>123.83</v>
@@ -32985,7 +32985,7 @@
         <v>986</v>
       </c>
       <c r="F223" s="3">
-        <v>53.56</v>
+        <v>55.34</v>
       </c>
       <c r="G223" s="3">
         <v>343.47</v>
@@ -33113,7 +33113,7 @@
         <v>984</v>
       </c>
       <c r="F224" s="3">
-        <v>28.77</v>
+        <v>25.94</v>
       </c>
       <c r="G224" s="3">
         <v>61.23</v>
@@ -33241,7 +33241,7 @@
         <v>986</v>
       </c>
       <c r="F225" s="3">
-        <v>25.52</v>
+        <v>33.96</v>
       </c>
       <c r="G225" s="3">
         <v>200.68</v>
@@ -33369,7 +33369,7 @@
         <v>986</v>
       </c>
       <c r="F226" s="3">
-        <v>35.97</v>
+        <v>37.39</v>
       </c>
       <c r="G226" s="3">
         <v>44.3</v>
@@ -33625,7 +33625,7 @@
         <v>989</v>
       </c>
       <c r="F228" s="3">
-        <v>52.94</v>
+        <v>49.68</v>
       </c>
       <c r="G228" s="3">
         <v>117.32</v>
@@ -33753,7 +33753,7 @@
         <v>987</v>
       </c>
       <c r="F229" s="3">
-        <v>61.89</v>
+        <v>54.33</v>
       </c>
       <c r="G229" s="3">
         <v>15.8</v>
@@ -34009,7 +34009,7 @@
         <v>984</v>
       </c>
       <c r="F231" s="3">
-        <v>55.43</v>
+        <v>41.75</v>
       </c>
       <c r="G231" s="3">
         <v>122.35</v>
@@ -34137,7 +34137,7 @@
         <v>989</v>
       </c>
       <c r="F232" s="3">
-        <v>34.68</v>
+        <v>36.58</v>
       </c>
       <c r="G232" s="3">
         <v>258.66</v>
@@ -34212,13 +34212,13 @@
         <v>314</v>
       </c>
       <c r="AE232" s="5">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF232" s="5">
         <v>267</v>
       </c>
       <c r="AG232" s="5">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AH232" s="2">
         <v>295</v>
@@ -34233,22 +34233,22 @@
         <v>276</v>
       </c>
       <c r="AL232" s="2">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="AM232" s="2">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AN232" s="2">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AO232" s="2">
         <v>1309</v>
       </c>
       <c r="AP232" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AQ232" s="2">
-        <v>8992</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="233" spans="2:43">
@@ -34265,7 +34265,7 @@
         <v>986</v>
       </c>
       <c r="F233" s="3">
-        <v>47.33</v>
+        <v>45.53</v>
       </c>
       <c r="G233" s="3">
         <v>1291.97</v>
@@ -34393,7 +34393,7 @@
         <v>987</v>
       </c>
       <c r="F234" s="3">
-        <v>66.2</v>
+        <v>55.41</v>
       </c>
       <c r="G234" s="3">
         <v>4.64</v>
@@ -34480,7 +34480,7 @@
         <v>81</v>
       </c>
       <c r="AI234" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ234" s="2">
         <v>196</v>
@@ -34489,13 +34489,13 @@
         <v>70</v>
       </c>
       <c r="AL234" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AM234" s="2">
         <v>834</v>
       </c>
       <c r="AN234" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO234" s="2">
         <v>750</v>
@@ -34504,7 +34504,7 @@
         <v>534</v>
       </c>
       <c r="AQ234" s="2">
-        <v>3994</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="235" spans="2:43">
@@ -34777,7 +34777,7 @@
         <v>982</v>
       </c>
       <c r="F237" s="3">
-        <v>19.18</v>
+        <v>21.79</v>
       </c>
       <c r="G237" s="3">
         <v>394.24</v>
@@ -34905,7 +34905,7 @@
         <v>986</v>
       </c>
       <c r="F238" s="3">
-        <v>61.65</v>
+        <v>54.22</v>
       </c>
       <c r="G238" s="3">
         <v>438.66</v>
@@ -35161,7 +35161,7 @@
         <v>986</v>
       </c>
       <c r="F240" s="3">
-        <v>22.85</v>
+        <v>29.38</v>
       </c>
       <c r="G240" s="3">
         <v>207.74</v>
@@ -35251,13 +35251,13 @@
         <v>393</v>
       </c>
       <c r="AJ240" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK240" s="2">
         <v>362</v>
       </c>
       <c r="AL240" s="2">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="AM240" s="2">
         <v>2235</v>
@@ -35266,13 +35266,13 @@
         <v>1876</v>
       </c>
       <c r="AO240" s="2">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="AP240" s="2">
         <v>1773</v>
       </c>
       <c r="AQ240" s="2">
-        <v>11076</v>
+        <v>11078</v>
       </c>
     </row>
     <row r="241" spans="2:43">
@@ -35289,7 +35289,7 @@
         <v>982</v>
       </c>
       <c r="F241" s="3">
-        <v>50.82</v>
+        <v>46.57</v>
       </c>
       <c r="G241" s="3">
         <v>233.47</v>
@@ -35673,7 +35673,7 @@
         <v>992</v>
       </c>
       <c r="F244" s="3">
-        <v>46.54</v>
+        <v>58.91</v>
       </c>
       <c r="G244" s="3">
         <v>182.59</v>
@@ -35929,7 +35929,7 @@
         <v>990</v>
       </c>
       <c r="F246" s="3">
-        <v>35.03</v>
+        <v>33.87</v>
       </c>
       <c r="G246" s="3">
         <v>105.26</v>
@@ -36313,7 +36313,7 @@
         <v>985</v>
       </c>
       <c r="F249" s="3">
-        <v>46.63</v>
+        <v>18.45</v>
       </c>
       <c r="G249" s="3">
         <v>124.46</v>
@@ -36441,7 +36441,7 @@
         <v>982</v>
       </c>
       <c r="F250" s="3">
-        <v>62.03</v>
+        <v>54.34</v>
       </c>
       <c r="G250" s="3">
         <v>157.51</v>
@@ -36569,7 +36569,7 @@
         <v>990</v>
       </c>
       <c r="F251" s="3">
-        <v>60.37</v>
+        <v>54.93</v>
       </c>
       <c r="G251" s="3">
         <v>135.75</v>
@@ -36825,7 +36825,7 @@
         <v>988</v>
       </c>
       <c r="F253" s="3">
-        <v>36.21</v>
+        <v>43.66</v>
       </c>
       <c r="G253" s="3">
         <v>59.32</v>
@@ -36953,7 +36953,7 @@
         <v>990</v>
       </c>
       <c r="F254" s="3">
-        <v>46.12</v>
+        <v>44.92</v>
       </c>
       <c r="G254" s="3">
         <v>39.51</v>
@@ -37081,7 +37081,7 @@
         <v>987</v>
       </c>
       <c r="F255" s="3">
-        <v>45.29</v>
+        <v>44.24</v>
       </c>
       <c r="G255" s="3">
         <v>16.76</v>
@@ -37721,7 +37721,7 @@
         <v>984</v>
       </c>
       <c r="F260" s="3">
-        <v>45.54</v>
+        <v>40.24</v>
       </c>
       <c r="G260" s="3">
         <v>309.79</v>
@@ -37849,7 +37849,7 @@
         <v>987</v>
       </c>
       <c r="F261" s="3">
-        <v>58.27</v>
+        <v>55.44</v>
       </c>
       <c r="G261" s="3">
         <v>574.9</v>
@@ -37977,7 +37977,7 @@
         <v>989</v>
       </c>
       <c r="F262" s="3">
-        <v>41.78</v>
+        <v>37.72</v>
       </c>
       <c r="G262" s="3">
         <v>94.37</v>
@@ -38105,7 +38105,7 @@
         <v>984</v>
       </c>
       <c r="F263" s="3">
-        <v>31.2</v>
+        <v>32.34</v>
       </c>
       <c r="G263" s="3">
         <v>145.59</v>
@@ -38233,7 +38233,7 @@
         <v>991</v>
       </c>
       <c r="F264" s="3">
-        <v>33.08</v>
+        <v>35.08</v>
       </c>
       <c r="G264" s="3">
         <v>63.76</v>
@@ -38873,7 +38873,7 @@
         <v>991</v>
       </c>
       <c r="F269" s="3">
-        <v>44.79</v>
+        <v>43.63</v>
       </c>
       <c r="G269" s="3">
         <v>26.46</v>
@@ -39001,7 +39001,7 @@
         <v>988</v>
       </c>
       <c r="F270" s="3">
-        <v>48.43</v>
+        <v>53.01</v>
       </c>
       <c r="G270" s="3">
         <v>16.16</v>
@@ -39129,7 +39129,7 @@
         <v>983</v>
       </c>
       <c r="F271" s="3">
-        <v>38.24</v>
+        <v>40.92</v>
       </c>
       <c r="G271" s="3">
         <v>150.75</v>
@@ -39257,7 +39257,7 @@
         <v>985</v>
       </c>
       <c r="F272" s="3">
-        <v>49.05</v>
+        <v>50.4</v>
       </c>
       <c r="G272" s="3">
         <v>281.87</v>
@@ -39323,7 +39323,7 @@
         <v>352</v>
       </c>
       <c r="AB272" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC272" s="5">
         <v>118</v>
@@ -39338,7 +39338,7 @@
         <v>225</v>
       </c>
       <c r="AG272" s="5">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AH272" s="2">
         <v>218</v>
@@ -39347,28 +39347,28 @@
         <v>204</v>
       </c>
       <c r="AJ272" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK272" s="2">
         <v>212</v>
       </c>
       <c r="AL272" s="2">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="AM272" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AN272" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AO272" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AP272" s="2">
         <v>1030</v>
       </c>
       <c r="AQ272" s="2">
-        <v>6422</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="273" spans="2:43">
@@ -39385,7 +39385,7 @@
         <v>985</v>
       </c>
       <c r="F273" s="3">
-        <v>46.06</v>
+        <v>45.45</v>
       </c>
       <c r="G273" s="3">
         <v>74.3</v>
@@ -39513,7 +39513,7 @@
         <v>991</v>
       </c>
       <c r="F274" s="3">
-        <v>46.18</v>
+        <v>45.51</v>
       </c>
       <c r="G274" s="3">
         <v>92.88</v>
@@ -39641,7 +39641,7 @@
         <v>991</v>
       </c>
       <c r="F275" s="3">
-        <v>21.13</v>
+        <v>20.06</v>
       </c>
       <c r="G275" s="3">
         <v>100.64</v>
@@ -40025,7 +40025,7 @@
         <v>989</v>
       </c>
       <c r="F278" s="3">
-        <v>46.08</v>
+        <v>40.28</v>
       </c>
       <c r="G278" s="3">
         <v>63.61</v>
@@ -40278,7 +40278,7 @@
         <v>991</v>
       </c>
       <c r="F280" s="3">
-        <v>53.47</v>
+        <v>51.9</v>
       </c>
       <c r="G280" s="3">
         <v>15.97</v>
@@ -40403,7 +40403,7 @@
         <v>987</v>
       </c>
       <c r="F281" s="3">
-        <v>53.37</v>
+        <v>58.29</v>
       </c>
       <c r="G281" s="3">
         <v>83.70999999999999</v>
@@ -40466,7 +40466,7 @@
         <v>0.2052</v>
       </c>
       <c r="AA281" s="5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB281" s="5">
         <v>147</v>
@@ -40484,7 +40484,7 @@
         <v>138</v>
       </c>
       <c r="AG281" s="5">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AH281" s="2">
         <v>98</v>
@@ -40499,22 +40499,22 @@
         <v>116</v>
       </c>
       <c r="AL281" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AM281" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AN281" s="2">
         <v>646</v>
       </c>
       <c r="AO281" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AP281" s="2">
         <v>649</v>
       </c>
       <c r="AQ281" s="2">
-        <v>3838</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="282" spans="2:43">
@@ -40787,7 +40787,7 @@
         <v>982</v>
       </c>
       <c r="F284" s="3">
-        <v>75.59999999999999</v>
+        <v>64.53</v>
       </c>
       <c r="G284" s="3">
         <v>355.84</v>
@@ -41043,7 +41043,7 @@
         <v>982</v>
       </c>
       <c r="F286" s="3">
-        <v>78.06</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="G286" s="3">
         <v>175.65</v>
@@ -41261,13 +41261,13 @@
         <v>467</v>
       </c>
       <c r="AJ287" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AK287" s="2">
         <v>458</v>
       </c>
       <c r="AL287" s="2">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="AM287" s="2">
         <v>2610</v>
@@ -41276,13 +41276,13 @@
         <v>2273</v>
       </c>
       <c r="AO287" s="2">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AP287" s="2">
         <v>2234</v>
       </c>
       <c r="AQ287" s="2">
-        <v>13237</v>
+        <v>13235</v>
       </c>
     </row>
     <row r="288" spans="2:43">
@@ -41299,7 +41299,7 @@
         <v>985</v>
       </c>
       <c r="F288" s="3">
-        <v>42.26</v>
+        <v>51.74</v>
       </c>
       <c r="G288" s="3">
         <v>28.02</v>
@@ -41427,7 +41427,7 @@
         <v>987</v>
       </c>
       <c r="F289" s="3">
-        <v>53.68</v>
+        <v>50.66</v>
       </c>
       <c r="G289" s="3">
         <v>73.3</v>
@@ -41555,7 +41555,7 @@
         <v>985</v>
       </c>
       <c r="F290" s="3">
-        <v>42.08</v>
+        <v>52.88</v>
       </c>
       <c r="G290" s="3">
         <v>241.85</v>
@@ -41901,13 +41901,13 @@
         <v>267</v>
       </c>
       <c r="AJ292" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK292" s="2">
         <v>271</v>
       </c>
       <c r="AL292" s="2">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="AM292" s="2">
         <v>1454</v>
@@ -41916,13 +41916,13 @@
         <v>1269</v>
       </c>
       <c r="AO292" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AP292" s="2">
         <v>1362</v>
       </c>
       <c r="AQ292" s="2">
-        <v>7459</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="293" spans="2:43">
@@ -42067,7 +42067,7 @@
         <v>990</v>
       </c>
       <c r="F294" s="3">
-        <v>39.41</v>
+        <v>35.76</v>
       </c>
       <c r="G294" s="3">
         <v>37.26</v>
@@ -42323,7 +42323,7 @@
         <v>990</v>
       </c>
       <c r="F296" s="3">
-        <v>48.74</v>
+        <v>45.92</v>
       </c>
       <c r="G296" s="3">
         <v>914.4299999999999</v>
@@ -42451,7 +42451,7 @@
         <v>989</v>
       </c>
       <c r="F297" s="3">
-        <v>51.8</v>
+        <v>44.63</v>
       </c>
       <c r="G297" s="3">
         <v>41.1</v>
@@ -42579,7 +42579,7 @@
         <v>984</v>
       </c>
       <c r="F298" s="3">
-        <v>27.21</v>
+        <v>31.44</v>
       </c>
       <c r="G298" s="3">
         <v>7146.03</v>
@@ -42835,7 +42835,7 @@
         <v>986</v>
       </c>
       <c r="F300" s="3">
-        <v>32.03</v>
+        <v>40.73</v>
       </c>
       <c r="G300" s="3">
         <v>79.95999999999999</v>
@@ -43091,7 +43091,7 @@
         <v>986</v>
       </c>
       <c r="F302" s="3">
-        <v>30.43</v>
+        <v>35.74</v>
       </c>
       <c r="G302" s="3">
         <v>98.69</v>
@@ -43219,7 +43219,7 @@
         <v>985</v>
       </c>
       <c r="F303" s="3">
-        <v>49.82</v>
+        <v>56.2</v>
       </c>
       <c r="G303" s="3">
         <v>207.73</v>
@@ -43475,7 +43475,7 @@
         <v>984</v>
       </c>
       <c r="F305" s="3">
-        <v>34.83</v>
+        <v>38.31</v>
       </c>
       <c r="G305" s="3">
         <v>80.11</v>
@@ -43603,7 +43603,7 @@
         <v>991</v>
       </c>
       <c r="F306" s="3">
-        <v>40.27</v>
+        <v>38.82</v>
       </c>
       <c r="G306" s="3">
         <v>73.39</v>
@@ -43731,7 +43731,7 @@
         <v>982</v>
       </c>
       <c r="F307" s="3">
-        <v>68.87</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="G307" s="3">
         <v>459.6</v>
@@ -43859,7 +43859,7 @@
         <v>982</v>
       </c>
       <c r="F308" s="3">
-        <v>45.96</v>
+        <v>33.05</v>
       </c>
       <c r="G308" s="3">
         <v>227.17</v>
@@ -43987,7 +43987,7 @@
         <v>987</v>
       </c>
       <c r="F309" s="3">
-        <v>41.16</v>
+        <v>43.83</v>
       </c>
       <c r="G309" s="3">
         <v>31.26</v>
@@ -44115,7 +44115,7 @@
         <v>982</v>
       </c>
       <c r="F310" s="3">
-        <v>54.77</v>
+        <v>56.29</v>
       </c>
       <c r="G310" s="3">
         <v>50.34</v>
@@ -44205,13 +44205,13 @@
         <v>323</v>
       </c>
       <c r="AJ310" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK310" s="2">
         <v>349</v>
       </c>
       <c r="AL310" s="2">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="AM310" s="2">
         <v>1484</v>
@@ -44220,13 +44220,13 @@
         <v>1421</v>
       </c>
       <c r="AO310" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AP310" s="2">
         <v>1601</v>
       </c>
       <c r="AQ310" s="2">
-        <v>7785</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="311" spans="2:43">
@@ -44306,7 +44306,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="AA311" s="5">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB311" s="5">
         <v>195</v>
@@ -44324,7 +44324,7 @@
         <v>277</v>
       </c>
       <c r="AG311" s="5">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="AH311" s="2">
         <v>213</v>
@@ -44339,22 +44339,22 @@
         <v>227</v>
       </c>
       <c r="AL311" s="2">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AM311" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AN311" s="2">
         <v>1025</v>
       </c>
       <c r="AO311" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AP311" s="2">
         <v>1126</v>
       </c>
       <c r="AQ311" s="2">
-        <v>6338</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="312" spans="2:43">
@@ -44371,7 +44371,7 @@
         <v>983</v>
       </c>
       <c r="F312" s="3">
-        <v>67.95</v>
+        <v>62.07</v>
       </c>
       <c r="G312" s="3">
         <v>106.1</v>
@@ -44562,7 +44562,7 @@
         <v>0.2457</v>
       </c>
       <c r="AA313" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB313" s="5">
         <v>169</v>
@@ -44580,7 +44580,7 @@
         <v>79</v>
       </c>
       <c r="AG313" s="5">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AH313" s="2">
         <v>104</v>
@@ -44589,28 +44589,28 @@
         <v>102</v>
       </c>
       <c r="AJ313" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK313" s="2">
         <v>90</v>
       </c>
       <c r="AL313" s="2">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="AM313" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AN313" s="2">
         <v>735</v>
       </c>
       <c r="AO313" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AP313" s="2">
         <v>633</v>
       </c>
       <c r="AQ313" s="2">
-        <v>4713</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="314" spans="2:43">
@@ -44627,7 +44627,7 @@
         <v>986</v>
       </c>
       <c r="F314" s="3">
-        <v>46.38</v>
+        <v>42.11</v>
       </c>
       <c r="G314" s="3">
         <v>195.51</v>
@@ -44755,7 +44755,7 @@
         <v>983</v>
       </c>
       <c r="F315" s="3">
-        <v>44.36</v>
+        <v>43.54</v>
       </c>
       <c r="G315" s="3">
         <v>187.35</v>
@@ -44880,7 +44880,7 @@
         <v>985</v>
       </c>
       <c r="F316" s="3">
-        <v>50.7</v>
+        <v>45.44</v>
       </c>
       <c r="G316" s="3">
         <v>84.48999999999999</v>
@@ -45008,7 +45008,7 @@
         <v>985</v>
       </c>
       <c r="F317" s="3">
-        <v>44.94</v>
+        <v>27.76</v>
       </c>
       <c r="G317" s="3">
         <v>24.29</v>
@@ -45136,7 +45136,7 @@
         <v>983</v>
       </c>
       <c r="F318" s="3">
-        <v>35.72</v>
+        <v>37.87</v>
       </c>
       <c r="G318" s="3">
         <v>73.54000000000001</v>
@@ -45264,7 +45264,7 @@
         <v>992</v>
       </c>
       <c r="F319" s="3">
-        <v>46.2</v>
+        <v>45.21</v>
       </c>
       <c r="G319" s="3">
         <v>299.04</v>
@@ -45589,7 +45589,7 @@
         <v>325</v>
       </c>
       <c r="AC321" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD321" s="5">
         <v>224</v>
@@ -45601,7 +45601,7 @@
         <v>273</v>
       </c>
       <c r="AG321" s="5">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AH321" s="2">
         <v>259</v>
@@ -45616,22 +45616,22 @@
         <v>248</v>
       </c>
       <c r="AL321" s="2">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="AM321" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AN321" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AO321" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AP321" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AQ321" s="2">
-        <v>7725</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="322" spans="2:43">
@@ -45648,7 +45648,7 @@
         <v>986</v>
       </c>
       <c r="F322" s="3">
-        <v>44.12</v>
+        <v>45.5</v>
       </c>
       <c r="G322" s="3">
         <v>81.68000000000001</v>
@@ -45776,7 +45776,7 @@
         <v>987</v>
       </c>
       <c r="F323" s="3">
-        <v>36.32</v>
+        <v>60.07</v>
       </c>
       <c r="G323" s="3">
         <v>78.2</v>
@@ -46032,7 +46032,7 @@
         <v>986</v>
       </c>
       <c r="F325" s="3">
-        <v>52.93</v>
+        <v>52.13</v>
       </c>
       <c r="G325" s="3">
         <v>167.86</v>
@@ -46098,7 +46098,7 @@
         <v>117</v>
       </c>
       <c r="AB325" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC325" s="5">
         <v>193</v>
@@ -46113,7 +46113,7 @@
         <v>426</v>
       </c>
       <c r="AG325" s="5">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="AH325" s="2">
         <v>352</v>
@@ -46128,22 +46128,22 @@
         <v>401</v>
       </c>
       <c r="AL325" s="2">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="AM325" s="2">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="AN325" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AO325" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP325" s="2">
         <v>1820</v>
       </c>
       <c r="AQ325" s="2">
-        <v>8540</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="326" spans="2:43">
@@ -46288,7 +46288,7 @@
         <v>986</v>
       </c>
       <c r="F327" s="3">
-        <v>75.12</v>
+        <v>66.47</v>
       </c>
       <c r="G327" s="3">
         <v>252.12</v>
@@ -46416,7 +46416,7 @@
         <v>986</v>
       </c>
       <c r="F328" s="3">
-        <v>72.88</v>
+        <v>69</v>
       </c>
       <c r="G328" s="3">
         <v>107.26</v>
@@ -46544,7 +46544,7 @@
         <v>985</v>
       </c>
       <c r="F329" s="3">
-        <v>30.76</v>
+        <v>34.37</v>
       </c>
       <c r="G329" s="3">
         <v>68.59</v>
@@ -46669,7 +46669,7 @@
         <v>985</v>
       </c>
       <c r="F330" s="3">
-        <v>62.11</v>
+        <v>60.23</v>
       </c>
       <c r="G330" s="3">
         <v>61.37</v>
@@ -46860,7 +46860,7 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="AA331" s="5">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB331" s="5">
         <v>84</v>
@@ -46878,7 +46878,7 @@
         <v>197</v>
       </c>
       <c r="AG331" s="5">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AH331" s="2">
         <v>197</v>
@@ -46893,22 +46893,22 @@
         <v>203</v>
       </c>
       <c r="AL331" s="2">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="AM331" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AN331" s="2">
         <v>1002</v>
       </c>
       <c r="AO331" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AP331" s="2">
         <v>1120</v>
       </c>
       <c r="AQ331" s="2">
-        <v>6320</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="332" spans="2:43">
@@ -47181,7 +47181,7 @@
         <v>987</v>
       </c>
       <c r="F334" s="3">
-        <v>55.31</v>
+        <v>50.71</v>
       </c>
       <c r="G334" s="3">
         <v>23.24</v>
@@ -47437,7 +47437,7 @@
         <v>982</v>
       </c>
       <c r="F336" s="3">
-        <v>59.52</v>
+        <v>48.22</v>
       </c>
       <c r="G336" s="3">
         <v>192.67</v>
@@ -47449,25 +47449,25 @@
         <v>-0.0605</v>
       </c>
       <c r="J336" s="4">
-        <v>-0.0403</v>
+        <v>-0.0391</v>
       </c>
       <c r="K336" s="4">
-        <v>0.0483</v>
+        <v>0.0496</v>
       </c>
       <c r="L336" s="4">
-        <v>-0.2295</v>
+        <v>-0.2285</v>
       </c>
       <c r="M336" s="4">
-        <v>-0.3105</v>
+        <v>-0.3097</v>
       </c>
       <c r="N336" s="4">
-        <v>-0.1826</v>
+        <v>-0.1817</v>
       </c>
       <c r="O336" s="4">
-        <v>-0.3494</v>
+        <v>-0.3486</v>
       </c>
       <c r="P336" s="4">
-        <v>0.3341</v>
+        <v>0.3346</v>
       </c>
       <c r="Q336" s="4" t="s">
         <v>993</v>
@@ -47476,7 +47476,7 @@
         <v>993</v>
       </c>
       <c r="S336" s="4">
-        <v>1.374462</v>
+        <v>1.377132</v>
       </c>
       <c r="T336" s="4" t="s">
         <v>993</v>
@@ -47485,25 +47485,25 @@
         <v>993</v>
       </c>
       <c r="V336" s="4">
-        <v>-0.1429</v>
+        <v>-0.1419</v>
       </c>
       <c r="W336" s="4">
-        <v>-0.1686</v>
+        <v>-0.1676</v>
       </c>
       <c r="X336" s="4">
-        <v>-0.0738</v>
+        <v>-0.0727</v>
       </c>
       <c r="Y336" s="4">
-        <v>-0.268</v>
+        <v>-0.2671</v>
       </c>
       <c r="Z336" s="4">
-        <v>-0.1773</v>
+        <v>-0.1763</v>
       </c>
       <c r="AA336" s="5">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AB336" s="5">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC336" s="5">
         <v>472</v>
@@ -47518,37 +47518,37 @@
         <v>462</v>
       </c>
       <c r="AG336" s="5">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="AH336" s="2">
         <v>452</v>
       </c>
       <c r="AI336" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AJ336" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AK336" s="2">
         <v>465</v>
       </c>
       <c r="AL336" s="2">
-        <v>4009</v>
+        <v>4003</v>
       </c>
       <c r="AM336" s="2">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="AN336" s="2">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="AO336" s="2">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="AP336" s="2">
         <v>2289</v>
       </c>
       <c r="AQ336" s="2">
-        <v>11707</v>
+        <v>11692</v>
       </c>
     </row>
     <row r="337" spans="2:43">
@@ -47690,7 +47690,7 @@
         <v>987</v>
       </c>
       <c r="F338" s="3">
-        <v>29.99</v>
+        <v>30</v>
       </c>
       <c r="G338" s="3">
         <v>264.58</v>
@@ -47946,7 +47946,7 @@
         <v>989</v>
       </c>
       <c r="F340" s="3">
-        <v>34.8</v>
+        <v>32.71</v>
       </c>
       <c r="G340" s="3">
         <v>54.9</v>
@@ -48074,7 +48074,7 @@
         <v>991</v>
       </c>
       <c r="F341" s="3">
-        <v>39.22</v>
+        <v>36.4</v>
       </c>
       <c r="G341" s="3">
         <v>17.31</v>
@@ -48202,7 +48202,7 @@
         <v>983</v>
       </c>
       <c r="F342" s="3">
-        <v>63.91</v>
+        <v>67.36</v>
       </c>
       <c r="G342" s="3">
         <v>37.77</v>
@@ -48268,7 +48268,7 @@
         <v>124</v>
       </c>
       <c r="AB342" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC342" s="5">
         <v>233</v>
@@ -48283,7 +48283,7 @@
         <v>270</v>
       </c>
       <c r="AG342" s="5">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AH342" s="2">
         <v>253</v>
@@ -48298,22 +48298,22 @@
         <v>268</v>
       </c>
       <c r="AL342" s="2">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="AM342" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="AN342" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AO342" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AP342" s="2">
         <v>1324</v>
       </c>
       <c r="AQ342" s="2">
-        <v>6857</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="343" spans="2:43">
@@ -48586,7 +48586,7 @@
         <v>986</v>
       </c>
       <c r="F345" s="3">
-        <v>36.99</v>
+        <v>33.04</v>
       </c>
       <c r="G345" s="3">
         <v>156.59</v>
@@ -48970,7 +48970,7 @@
         <v>986</v>
       </c>
       <c r="F348" s="3">
-        <v>41.96</v>
+        <v>40.37</v>
       </c>
       <c r="G348" s="3">
         <v>135.2</v>
@@ -49351,7 +49351,7 @@
         <v>984</v>
       </c>
       <c r="F351" s="3">
-        <v>44.87</v>
+        <v>43.27</v>
       </c>
       <c r="G351" s="3">
         <v>31.87</v>
@@ -49479,7 +49479,7 @@
         <v>991</v>
       </c>
       <c r="F352" s="3">
-        <v>50.5</v>
+        <v>47.28</v>
       </c>
       <c r="G352" s="3">
         <v>62.01</v>
@@ -49607,7 +49607,7 @@
         <v>991</v>
       </c>
       <c r="F353" s="3">
-        <v>29.59</v>
+        <v>34.52</v>
       </c>
       <c r="G353" s="3">
         <v>43.67</v>
@@ -49679,7 +49679,7 @@
         <v>398</v>
       </c>
       <c r="AD353" s="5">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AE353" s="5">
         <v>432</v>
@@ -49688,7 +49688,7 @@
         <v>414</v>
       </c>
       <c r="AG353" s="5">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="AH353" s="2">
         <v>443</v>
@@ -49703,22 +49703,22 @@
         <v>441</v>
       </c>
       <c r="AL353" s="2">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="AM353" s="2">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="AN353" s="2">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="AO353" s="2">
         <v>1426</v>
       </c>
       <c r="AP353" s="2">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AQ353" s="2">
-        <v>12075</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="354" spans="2:43">
@@ -49822,7 +49822,7 @@
         <v>461</v>
       </c>
       <c r="AI354" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ354" s="2">
         <v>483</v>
@@ -49831,13 +49831,13 @@
         <v>440</v>
       </c>
       <c r="AL354" s="2">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="AM354" s="2">
         <v>2606</v>
       </c>
       <c r="AN354" s="2">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="AO354" s="2">
         <v>1919</v>
@@ -49846,7 +49846,7 @@
         <v>2064</v>
       </c>
       <c r="AQ354" s="2">
-        <v>13131</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="355" spans="2:43">
@@ -49991,7 +49991,7 @@
         <v>985</v>
       </c>
       <c r="F356" s="3">
-        <v>30.5</v>
+        <v>33.48</v>
       </c>
       <c r="G356" s="3">
         <v>119.97</v>
@@ -50119,7 +50119,7 @@
         <v>987</v>
       </c>
       <c r="F357" s="3">
-        <v>42.49</v>
+        <v>41.14</v>
       </c>
       <c r="G357" s="3">
         <v>260.41</v>
@@ -50503,7 +50503,7 @@
         <v>982</v>
       </c>
       <c r="F360" s="3">
-        <v>60.64</v>
+        <v>53.18</v>
       </c>
       <c r="G360" s="3">
         <v>22.675</v>
@@ -50515,25 +50515,25 @@
         <v>-0.0328</v>
       </c>
       <c r="J360" s="4">
-        <v>-0.0455</v>
+        <v>-0.0453</v>
       </c>
       <c r="K360" s="4">
-        <v>0.1167</v>
+        <v>0.117</v>
       </c>
       <c r="L360" s="4">
-        <v>0.3242</v>
+        <v>0.3245</v>
       </c>
       <c r="M360" s="4">
-        <v>0.1438</v>
+        <v>0.144</v>
       </c>
       <c r="N360" s="4">
-        <v>-0.1892</v>
+        <v>-0.189</v>
       </c>
       <c r="O360" s="4">
-        <v>-0.1487</v>
+        <v>-0.1485</v>
       </c>
       <c r="P360" s="4">
-        <v>0.0344</v>
+        <v>0.0345</v>
       </c>
       <c r="Q360" s="4" t="s">
         <v>993</v>
@@ -50542,7 +50542,7 @@
         <v>993</v>
       </c>
       <c r="S360" s="4">
-        <v>0.106791</v>
+        <v>0.107112</v>
       </c>
       <c r="T360" s="4" t="s">
         <v>993</v>
@@ -50551,19 +50551,19 @@
         <v>993</v>
       </c>
       <c r="V360" s="4">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="W360" s="4">
-        <v>0.0989</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="X360" s="4">
-        <v>0.1318</v>
+        <v>0.1321</v>
       </c>
       <c r="Y360" s="4">
-        <v>0.0325</v>
+        <v>0.0328</v>
       </c>
       <c r="Z360" s="4">
-        <v>0.0335</v>
+        <v>0.0338</v>
       </c>
       <c r="AA360" s="5">
         <v>359</v>
@@ -50590,31 +50590,31 @@
         <v>203</v>
       </c>
       <c r="AI360" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ360" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK360" s="2">
         <v>296</v>
       </c>
       <c r="AL360" s="2">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="AM360" s="2">
         <v>1267</v>
       </c>
       <c r="AN360" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AO360" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AP360" s="2">
         <v>1359</v>
       </c>
       <c r="AQ360" s="2">
-        <v>6182</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="361" spans="2:43">
@@ -50631,7 +50631,7 @@
         <v>987</v>
       </c>
       <c r="F361" s="3">
-        <v>57.64</v>
+        <v>53.94</v>
       </c>
       <c r="G361" s="3">
         <v>26.47</v>
@@ -50643,22 +50643,22 @@
         <v>-0.0171</v>
       </c>
       <c r="J361" s="4">
-        <v>-0.0142</v>
+        <v>-0.0138</v>
       </c>
       <c r="K361" s="4">
-        <v>0.0019</v>
+        <v>0.0023</v>
       </c>
       <c r="L361" s="4">
-        <v>0.123</v>
+        <v>0.1234</v>
       </c>
       <c r="M361" s="4">
-        <v>0.1493</v>
+        <v>0.1497</v>
       </c>
       <c r="N361" s="4">
-        <v>0.0218</v>
+        <v>0.0222</v>
       </c>
       <c r="O361" s="4">
-        <v>0.0057</v>
+        <v>0.0061</v>
       </c>
       <c r="P361" s="4" t="s">
         <v>993</v>
@@ -50679,28 +50679,28 @@
         <v>993</v>
       </c>
       <c r="V361" s="4">
-        <v>0.0564</v>
+        <v>0.0568</v>
       </c>
       <c r="W361" s="4">
-        <v>0.074</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="X361" s="4">
-        <v>0.0369</v>
+        <v>0.0373</v>
       </c>
       <c r="Y361" s="4">
-        <v>0.07489999999999999</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="Z361" s="4">
-        <v>0.0479</v>
+        <v>0.0483</v>
       </c>
       <c r="AA361" s="5">
         <v>219</v>
       </c>
       <c r="AB361" s="5">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC361" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD361" s="5">
         <v>207</v>
@@ -50712,7 +50712,7 @@
         <v>306</v>
       </c>
       <c r="AG361" s="5">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="AH361" s="2">
         <v>220</v>
@@ -50727,22 +50727,22 @@
         <v>244</v>
       </c>
       <c r="AL361" s="2">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="AM361" s="2">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="AN361" s="2">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="AO361" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="AP361" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AQ361" s="2">
-        <v>6328</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="362" spans="2:43">
@@ -50887,7 +50887,7 @@
         <v>985</v>
       </c>
       <c r="F363" s="3">
-        <v>36.29</v>
+        <v>35.75</v>
       </c>
       <c r="G363" s="3">
         <v>11.58</v>
@@ -51015,7 +51015,7 @@
         <v>985</v>
       </c>
       <c r="F364" s="3">
-        <v>25.21</v>
+        <v>30.71</v>
       </c>
       <c r="G364" s="3">
         <v>151.69</v>
@@ -51271,7 +51271,7 @@
         <v>983</v>
       </c>
       <c r="F366" s="3">
-        <v>44.77</v>
+        <v>42.31</v>
       </c>
       <c r="G366" s="3">
         <v>45.87</v>
@@ -51283,61 +51283,61 @@
         <v>-0.0129</v>
       </c>
       <c r="J366" s="4">
-        <v>-0.07340000000000001</v>
+        <v>-0.0722</v>
       </c>
       <c r="K366" s="4">
-        <v>-0.0077</v>
+        <v>-0.0064</v>
       </c>
       <c r="L366" s="4">
-        <v>0.1704</v>
+        <v>0.172</v>
       </c>
       <c r="M366" s="4">
-        <v>0.4559</v>
+        <v>0.4578</v>
       </c>
       <c r="N366" s="4">
-        <v>1.0852</v>
+        <v>1.0879</v>
       </c>
       <c r="O366" s="4">
-        <v>0.9401</v>
+        <v>0.9426</v>
       </c>
       <c r="P366" s="4">
-        <v>0.6403</v>
+        <v>0.641</v>
       </c>
       <c r="Q366" s="4">
-        <v>0.1732</v>
+        <v>0.1735</v>
       </c>
       <c r="R366" s="4">
-        <v>0.0385</v>
+        <v>0.0387</v>
       </c>
       <c r="S366" s="4">
-        <v>3.413365</v>
+        <v>3.419018</v>
       </c>
       <c r="T366" s="4">
-        <v>1.222595</v>
+        <v>1.225438</v>
       </c>
       <c r="U366" s="4">
-        <v>0.459033</v>
+        <v>0.461845</v>
       </c>
       <c r="V366" s="4">
-        <v>0.3261</v>
+        <v>0.3278</v>
       </c>
       <c r="W366" s="4">
-        <v>0.426</v>
+        <v>0.4278</v>
       </c>
       <c r="X366" s="4">
-        <v>0.0298</v>
+        <v>0.0311</v>
       </c>
       <c r="Y366" s="4">
-        <v>0.6629</v>
+        <v>0.6651</v>
       </c>
       <c r="Z366" s="4">
-        <v>0.4284</v>
+        <v>0.4303</v>
       </c>
       <c r="AA366" s="5">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB366" s="5">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AC366" s="5">
         <v>103</v>
@@ -51352,37 +51352,37 @@
         <v>36</v>
       </c>
       <c r="AG366" s="5">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="AH366" s="2">
         <v>43</v>
       </c>
       <c r="AI366" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ366" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AK366" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL366" s="2">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="AM366" s="2">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="AN366" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AO366" s="2">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="AP366" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AQ366" s="2">
-        <v>3687</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="367" spans="2:43">
@@ -51399,7 +51399,7 @@
         <v>986</v>
       </c>
       <c r="F367" s="3">
-        <v>35.49</v>
+        <v>34.6</v>
       </c>
       <c r="G367" s="3">
         <v>120.42</v>
@@ -51655,7 +51655,7 @@
         <v>986</v>
       </c>
       <c r="F369" s="3">
-        <v>54.59</v>
+        <v>47.98</v>
       </c>
       <c r="G369" s="3">
         <v>46.22</v>
@@ -51911,7 +51911,7 @@
         <v>988</v>
       </c>
       <c r="F371" s="3">
-        <v>54.24</v>
+        <v>56.95</v>
       </c>
       <c r="G371" s="3">
         <v>33.7</v>
@@ -52039,7 +52039,7 @@
         <v>989</v>
       </c>
       <c r="F372" s="3">
-        <v>47.31</v>
+        <v>46.88</v>
       </c>
       <c r="G372" s="3">
         <v>173.39</v>
@@ -52167,7 +52167,7 @@
         <v>986</v>
       </c>
       <c r="F373" s="3">
-        <v>33.97</v>
+        <v>57.55</v>
       </c>
       <c r="G373" s="3">
         <v>138.41</v>
@@ -52423,7 +52423,7 @@
         <v>986</v>
       </c>
       <c r="F375" s="3">
-        <v>44.99</v>
+        <v>40.02</v>
       </c>
       <c r="G375" s="3">
         <v>76.09</v>
@@ -52551,7 +52551,7 @@
         <v>987</v>
       </c>
       <c r="F376" s="3">
-        <v>64.16</v>
+        <v>60.64</v>
       </c>
       <c r="G376" s="3">
         <v>60.5</v>
@@ -52617,7 +52617,7 @@
         <v>49</v>
       </c>
       <c r="AB376" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC376" s="5">
         <v>173</v>
@@ -52632,7 +52632,7 @@
         <v>146</v>
       </c>
       <c r="AG376" s="5">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AH376" s="2">
         <v>130</v>
@@ -52647,22 +52647,22 @@
         <v>152</v>
       </c>
       <c r="AL376" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="AM376" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AN376" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AO376" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP376" s="2">
         <v>779</v>
       </c>
       <c r="AQ376" s="2">
-        <v>3760</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="377" spans="2:43">
@@ -52679,7 +52679,7 @@
         <v>984</v>
       </c>
       <c r="F377" s="3">
-        <v>44.91</v>
+        <v>47.3</v>
       </c>
       <c r="G377" s="3">
         <v>55.17</v>
@@ -52807,7 +52807,7 @@
         <v>987</v>
       </c>
       <c r="F378" s="3">
-        <v>52.64</v>
+        <v>55.01</v>
       </c>
       <c r="G378" s="3">
         <v>100.55</v>
@@ -52935,7 +52935,7 @@
         <v>986</v>
       </c>
       <c r="F379" s="3">
-        <v>70.66</v>
+        <v>61.05</v>
       </c>
       <c r="G379" s="3">
         <v>27.82</v>
@@ -53063,7 +53063,7 @@
         <v>986</v>
       </c>
       <c r="F380" s="3">
-        <v>44.55</v>
+        <v>39.36</v>
       </c>
       <c r="G380" s="3">
         <v>111.65</v>
@@ -53188,7 +53188,7 @@
         <v>982</v>
       </c>
       <c r="F381" s="3">
-        <v>76.33</v>
+        <v>65.86</v>
       </c>
       <c r="G381" s="3">
         <v>21.74</v>
@@ -53316,7 +53316,7 @@
         <v>987</v>
       </c>
       <c r="F382" s="3">
-        <v>49.32</v>
+        <v>48.79</v>
       </c>
       <c r="G382" s="3">
         <v>43.31</v>
@@ -53444,7 +53444,7 @@
         <v>982</v>
       </c>
       <c r="F383" s="3">
-        <v>45.64</v>
+        <v>35.17</v>
       </c>
       <c r="G383" s="3">
         <v>27.43</v>
@@ -53828,7 +53828,7 @@
         <v>988</v>
       </c>
       <c r="F386" s="3">
-        <v>58.82</v>
+        <v>64.5</v>
       </c>
       <c r="G386" s="3">
         <v>82.34</v>
@@ -53956,7 +53956,7 @@
         <v>985</v>
       </c>
       <c r="F387" s="3">
-        <v>45.56</v>
+        <v>44.92</v>
       </c>
       <c r="G387" s="3">
         <v>32.06</v>
@@ -53968,67 +53968,67 @@
         <v>-0.0028</v>
       </c>
       <c r="J387" s="4">
-        <v>-0.016</v>
+        <v>-0.0157</v>
       </c>
       <c r="K387" s="4">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="L387" s="4">
-        <v>-0.1664</v>
+        <v>-0.1662</v>
       </c>
       <c r="M387" s="4">
-        <v>-0.0338</v>
+        <v>-0.0335</v>
       </c>
       <c r="N387" s="4">
-        <v>-0.0151</v>
+        <v>-0.0148</v>
       </c>
       <c r="O387" s="4">
-        <v>-0.2651</v>
+        <v>-0.2648</v>
       </c>
       <c r="P387" s="4">
-        <v>-0.1454</v>
+        <v>-0.1453</v>
       </c>
       <c r="Q387" s="4">
-        <v>0.0262</v>
+        <v>0.0263</v>
       </c>
       <c r="R387" s="4" t="s">
         <v>993</v>
       </c>
       <c r="S387" s="4">
-        <v>-0.37585</v>
+        <v>-0.375631</v>
       </c>
       <c r="T387" s="4">
-        <v>0.138047</v>
+        <v>0.138601</v>
       </c>
       <c r="U387" s="4" t="s">
         <v>993</v>
       </c>
       <c r="V387" s="4">
-        <v>-0.0463</v>
+        <v>-0.046</v>
       </c>
       <c r="W387" s="4">
-        <v>-0.0539</v>
+        <v>-0.0536</v>
       </c>
       <c r="X387" s="4">
-        <v>-0.0609</v>
+        <v>-0.0606</v>
       </c>
       <c r="Y387" s="4">
-        <v>-0.1201</v>
+        <v>-0.1198</v>
       </c>
       <c r="Z387" s="4">
-        <v>-0.0828</v>
+        <v>-0.0825</v>
       </c>
       <c r="AA387" s="5">
         <v>232</v>
       </c>
       <c r="AB387" s="5">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC387" s="5">
         <v>449</v>
       </c>
       <c r="AD387" s="5">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AE387" s="5">
         <v>325</v>
@@ -54037,7 +54037,7 @@
         <v>442</v>
       </c>
       <c r="AG387" s="5">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="AH387" s="2">
         <v>373</v>
@@ -54052,22 +54052,22 @@
         <v>417</v>
       </c>
       <c r="AL387" s="2">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="AM387" s="2">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="AN387" s="2">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="AO387" s="2">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AP387" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="AQ387" s="2">
-        <v>10435</v>
+        <v>10423</v>
       </c>
     </row>
     <row r="388" spans="2:43">
@@ -54212,7 +54212,7 @@
         <v>989</v>
       </c>
       <c r="F389" s="3">
-        <v>34.15</v>
+        <v>31</v>
       </c>
       <c r="G389" s="3">
         <v>30.84</v>
@@ -54468,7 +54468,7 @@
         <v>987</v>
       </c>
       <c r="F391" s="3">
-        <v>33.31</v>
+        <v>45.02</v>
       </c>
       <c r="G391" s="3">
         <v>60.59</v>
@@ -54596,7 +54596,7 @@
         <v>982</v>
       </c>
       <c r="F392" s="3">
-        <v>32.92</v>
+        <v>32.12</v>
       </c>
       <c r="G392" s="3">
         <v>37.61</v>
@@ -54724,7 +54724,7 @@
         <v>986</v>
       </c>
       <c r="F393" s="3">
-        <v>29.44</v>
+        <v>26.16</v>
       </c>
       <c r="G393" s="3">
         <v>152.11</v>
@@ -54980,7 +54980,7 @@
         <v>986</v>
       </c>
       <c r="F395" s="3">
-        <v>35.12</v>
+        <v>39.69</v>
       </c>
       <c r="G395" s="3">
         <v>42.4</v>
@@ -55302,7 +55302,7 @@
         <v>175</v>
       </c>
       <c r="AB397" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC397" s="5">
         <v>370</v>
@@ -55317,7 +55317,7 @@
         <v>436</v>
       </c>
       <c r="AG397" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="AH397" s="2">
         <v>393</v>
@@ -55332,22 +55332,22 @@
         <v>431</v>
       </c>
       <c r="AL397" s="2">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="AM397" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="AN397" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AO397" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="AP397" s="2">
         <v>2049</v>
       </c>
       <c r="AQ397" s="2">
-        <v>10393</v>
+        <v>10397</v>
       </c>
     </row>
     <row r="398" spans="2:43">
@@ -55364,7 +55364,7 @@
         <v>983</v>
       </c>
       <c r="F398" s="3">
-        <v>44.08</v>
+        <v>48.31</v>
       </c>
       <c r="G398" s="3">
         <v>219.74</v>
@@ -55620,7 +55620,7 @@
         <v>984</v>
       </c>
       <c r="F400" s="3">
-        <v>47.78</v>
+        <v>39.43</v>
       </c>
       <c r="G400" s="3">
         <v>141.91</v>
@@ -55748,7 +55748,7 @@
         <v>982</v>
       </c>
       <c r="F401" s="3">
-        <v>42.28</v>
+        <v>39.28</v>
       </c>
       <c r="G401" s="3">
         <v>148.03</v>
@@ -55876,7 +55876,7 @@
         <v>984</v>
       </c>
       <c r="F402" s="3">
-        <v>18.45</v>
+        <v>42.6</v>
       </c>
       <c r="G402" s="3">
         <v>17.05</v>
@@ -56004,7 +56004,7 @@
         <v>986</v>
       </c>
       <c r="F403" s="3">
-        <v>68.42</v>
+        <v>63.73</v>
       </c>
       <c r="G403" s="3">
         <v>100.29</v>
@@ -56385,7 +56385,7 @@
         <v>992</v>
       </c>
       <c r="F406" s="3">
-        <v>41.76</v>
+        <v>40.54</v>
       </c>
       <c r="G406" s="3">
         <v>78.06</v>
@@ -56638,7 +56638,7 @@
         <v>987</v>
       </c>
       <c r="F408" s="3">
-        <v>40.36</v>
+        <v>41.14</v>
       </c>
       <c r="G408" s="3">
         <v>48.46</v>
@@ -56766,7 +56766,7 @@
         <v>987</v>
       </c>
       <c r="F409" s="3">
-        <v>42.85</v>
+        <v>39</v>
       </c>
       <c r="G409" s="3">
         <v>11.02</v>
@@ -56957,7 +56957,7 @@
         <v>0.4717</v>
       </c>
       <c r="AA410" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB410" s="5">
         <v>401</v>
@@ -56975,7 +56975,7 @@
         <v>22</v>
       </c>
       <c r="AG410" s="5">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AH410" s="2">
         <v>48</v>
@@ -56990,22 +56990,22 @@
         <v>34</v>
       </c>
       <c r="AL410" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="AM410" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AN410" s="2">
         <v>592</v>
       </c>
       <c r="AO410" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AP410" s="2">
         <v>201</v>
       </c>
       <c r="AQ410" s="2">
-        <v>3512</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="411" spans="2:43">
@@ -57022,7 +57022,7 @@
         <v>991</v>
       </c>
       <c r="F411" s="3">
-        <v>47.94</v>
+        <v>47.32</v>
       </c>
       <c r="G411" s="3">
         <v>1033.19</v>
@@ -57150,7 +57150,7 @@
         <v>982</v>
       </c>
       <c r="F412" s="3">
-        <v>51.75</v>
+        <v>45.87</v>
       </c>
       <c r="G412" s="3">
         <v>30.85</v>
@@ -57406,7 +57406,7 @@
         <v>992</v>
       </c>
       <c r="F414" s="3">
-        <v>48.59</v>
+        <v>53.62</v>
       </c>
       <c r="G414" s="3">
         <v>17.7</v>
@@ -57534,7 +57534,7 @@
         <v>986</v>
       </c>
       <c r="F415" s="3">
-        <v>56.55</v>
+        <v>53.8</v>
       </c>
       <c r="G415" s="3">
         <v>134.08</v>
@@ -57659,7 +57659,7 @@
         <v>986</v>
       </c>
       <c r="F416" s="3">
-        <v>35.31</v>
+        <v>32.97</v>
       </c>
       <c r="G416" s="3">
         <v>36</v>
@@ -58043,7 +58043,7 @@
         <v>985</v>
       </c>
       <c r="F419" s="3">
-        <v>83.73999999999999</v>
+        <v>85.12</v>
       </c>
       <c r="G419" s="3">
         <v>31.995</v>
@@ -58052,55 +58052,55 @@
         <v>0.0256</v>
       </c>
       <c r="J419" s="4">
-        <v>0.2846</v>
+        <v>0.2844</v>
       </c>
       <c r="K419" s="4">
-        <v>0.3811</v>
+        <v>0.3809</v>
       </c>
       <c r="L419" s="4">
-        <v>0.508</v>
+        <v>0.5078</v>
       </c>
       <c r="M419" s="4">
-        <v>1.6711</v>
+        <v>1.6707</v>
       </c>
       <c r="N419" s="4">
-        <v>1.5744</v>
+        <v>1.574</v>
       </c>
       <c r="O419" s="4">
-        <v>2.4858</v>
+        <v>2.4853</v>
       </c>
       <c r="P419" s="4">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="Q419" s="4">
-        <v>0.3493</v>
+        <v>0.3492</v>
       </c>
       <c r="R419" s="4">
-        <v>0.0784</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="S419" s="4">
-        <v>0.610665</v>
+        <v>0.610253</v>
       </c>
       <c r="T419" s="4">
-        <v>3.47242</v>
+        <v>3.470763</v>
       </c>
       <c r="U419" s="4">
-        <v>1.127153</v>
+        <v>1.125182</v>
       </c>
       <c r="V419" s="4">
-        <v>0.8838</v>
+        <v>0.8836000000000001</v>
       </c>
       <c r="W419" s="4">
-        <v>1.0336</v>
+        <v>1.0334</v>
       </c>
       <c r="X419" s="4">
-        <v>0.3912</v>
+        <v>0.391</v>
       </c>
       <c r="Y419" s="4">
-        <v>1.5598</v>
+        <v>1.5594</v>
       </c>
       <c r="Z419" s="4">
-        <v>1.1508</v>
+        <v>1.1505</v>
       </c>
       <c r="AA419" s="5">
         <v>2</v>
@@ -58424,7 +58424,7 @@
         <v>989</v>
       </c>
       <c r="F422" s="3">
-        <v>41.16</v>
+        <v>39.94</v>
       </c>
       <c r="G422" s="3">
         <v>91.28</v>
@@ -58805,7 +58805,7 @@
         <v>984</v>
       </c>
       <c r="F425" s="3">
-        <v>56.23</v>
+        <v>54.72</v>
       </c>
       <c r="G425" s="3">
         <v>45.81</v>
@@ -59189,7 +59189,7 @@
         <v>982</v>
       </c>
       <c r="F428" s="3">
-        <v>64.41</v>
+        <v>61.74</v>
       </c>
       <c r="G428" s="3">
         <v>11.675</v>
@@ -59201,58 +59201,58 @@
         <v>-0.0106</v>
       </c>
       <c r="J428" s="4">
-        <v>0.0382</v>
+        <v>0.0369</v>
       </c>
       <c r="K428" s="4">
-        <v>0.1213</v>
+        <v>0.1199</v>
       </c>
       <c r="L428" s="4">
-        <v>0.0977</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="M428" s="4">
-        <v>0.2989</v>
+        <v>0.2972</v>
       </c>
       <c r="N428" s="4">
-        <v>0.1123</v>
+        <v>0.1108</v>
       </c>
       <c r="O428" s="4">
-        <v>0.0354</v>
+        <v>0.0341</v>
       </c>
       <c r="P428" s="4">
-        <v>-0.2634</v>
+        <v>-0.2638</v>
       </c>
       <c r="Q428" s="4">
-        <v>-0.2137</v>
+        <v>-0.2139</v>
       </c>
       <c r="R428" s="4" t="s">
         <v>993</v>
       </c>
       <c r="S428" s="4">
-        <v>-0.600336</v>
+        <v>-0.600987</v>
       </c>
       <c r="T428" s="4">
-        <v>-0.699433</v>
+        <v>-0.699815</v>
       </c>
       <c r="U428" s="4" t="s">
         <v>993</v>
       </c>
       <c r="V428" s="4">
-        <v>0.1337</v>
+        <v>0.1322</v>
       </c>
       <c r="W428" s="4">
-        <v>0.1576</v>
+        <v>0.156</v>
       </c>
       <c r="X428" s="4">
-        <v>0.0857</v>
+        <v>0.0843</v>
       </c>
       <c r="Y428" s="4">
-        <v>0.1361</v>
+        <v>0.1346</v>
       </c>
       <c r="Z428" s="4">
-        <v>0.1173</v>
+        <v>0.1158</v>
       </c>
       <c r="AA428" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB428" s="5">
         <v>29</v>
@@ -59264,16 +59264,16 @@
         <v>134</v>
       </c>
       <c r="AE428" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF428" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG428" s="5">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="AH428" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI428" s="2">
         <v>148</v>
@@ -59282,25 +59282,25 @@
         <v>76</v>
       </c>
       <c r="AK428" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL428" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="AM428" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AN428" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AO428" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AP428" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AQ428" s="2">
-        <v>4274</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="429" spans="2:43">
@@ -59317,7 +59317,7 @@
         <v>986</v>
       </c>
       <c r="F429" s="3">
-        <v>45.79</v>
+        <v>41.84</v>
       </c>
       <c r="G429" s="3">
         <v>63.13</v>
@@ -59442,7 +59442,7 @@
         <v>989</v>
       </c>
       <c r="F430" s="3">
-        <v>56.97</v>
+        <v>58.66</v>
       </c>
       <c r="G430" s="3">
         <v>24.15</v>
@@ -59570,7 +59570,7 @@
         <v>986</v>
       </c>
       <c r="F431" s="3">
-        <v>59.98</v>
+        <v>55.02</v>
       </c>
       <c r="G431" s="3">
         <v>16.19</v>
@@ -59636,7 +59636,7 @@
         <v>39</v>
       </c>
       <c r="AB431" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC431" s="5">
         <v>217</v>
@@ -59651,7 +59651,7 @@
         <v>307</v>
       </c>
       <c r="AG431" s="5">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AH431" s="2">
         <v>198</v>
@@ -59666,22 +59666,22 @@
         <v>250</v>
       </c>
       <c r="AL431" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="AM431" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AN431" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AO431" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP431" s="2">
         <v>1244</v>
       </c>
       <c r="AQ431" s="2">
-        <v>5580</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="432" spans="2:43">
@@ -59698,7 +59698,7 @@
         <v>987</v>
       </c>
       <c r="F432" s="3">
-        <v>44.37</v>
+        <v>48.03</v>
       </c>
       <c r="G432" s="3">
         <v>8.529999999999999</v>
@@ -59823,7 +59823,7 @@
         <v>982</v>
       </c>
       <c r="F433" s="3">
-        <v>50.78</v>
+        <v>47.67</v>
       </c>
       <c r="G433" s="3">
         <v>16.195</v>
@@ -59835,25 +59835,25 @@
         <v>-0.017</v>
       </c>
       <c r="J433" s="4">
-        <v>-0.0276</v>
+        <v>-0.0267</v>
       </c>
       <c r="K433" s="4">
-        <v>0.008699999999999999</v>
+        <v>0.0097</v>
       </c>
       <c r="L433" s="4">
-        <v>0.0043</v>
+        <v>0.0053</v>
       </c>
       <c r="M433" s="4">
-        <v>-0.2273</v>
+        <v>-0.2266</v>
       </c>
       <c r="N433" s="4">
-        <v>-0.2831</v>
+        <v>-0.2825</v>
       </c>
       <c r="O433" s="4">
-        <v>-0.1453</v>
+        <v>-0.1445</v>
       </c>
       <c r="P433" s="4">
-        <v>0.1936</v>
+        <v>0.194</v>
       </c>
       <c r="Q433" s="4" t="s">
         <v>993</v>
@@ -59862,7 +59862,7 @@
         <v>993</v>
       </c>
       <c r="S433" s="4">
-        <v>0.700499</v>
+        <v>0.702209</v>
       </c>
       <c r="T433" s="4" t="s">
         <v>993</v>
@@ -59871,31 +59871,31 @@
         <v>993</v>
       </c>
       <c r="V433" s="4">
-        <v>-0.105</v>
+        <v>-0.1042</v>
       </c>
       <c r="W433" s="4">
-        <v>-0.1244</v>
+        <v>-0.1235</v>
       </c>
       <c r="X433" s="4">
-        <v>-0.0049</v>
+        <v>-0.0039</v>
       </c>
       <c r="Y433" s="4">
-        <v>-0.1628</v>
+        <v>-0.1621</v>
       </c>
       <c r="Z433" s="4">
-        <v>-0.1117</v>
+        <v>-0.1109</v>
       </c>
       <c r="AA433" s="5">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB433" s="5">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AC433" s="5">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AD433" s="5">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AE433" s="5">
         <v>454</v>
@@ -59904,37 +59904,37 @@
         <v>387</v>
       </c>
       <c r="AG433" s="5">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="AH433" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AI433" s="2">
         <v>433</v>
       </c>
       <c r="AJ433" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AK433" s="2">
         <v>435</v>
       </c>
       <c r="AL433" s="2">
-        <v>3567</v>
+        <v>3552</v>
       </c>
       <c r="AM433" s="2">
-        <v>2065</v>
+        <v>2053</v>
       </c>
       <c r="AN433" s="2">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="AO433" s="2">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="AP433" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="AQ433" s="2">
-        <v>10391</v>
+        <v>10342</v>
       </c>
     </row>
     <row r="434" spans="2:43">
@@ -59951,7 +59951,7 @@
         <v>985</v>
       </c>
       <c r="F434" s="3">
-        <v>48.31</v>
+        <v>49.36</v>
       </c>
       <c r="G434" s="3">
         <v>20.15</v>
@@ -60076,7 +60076,7 @@
         <v>986</v>
       </c>
       <c r="F435" s="3">
-        <v>45.21</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="G435" s="3">
         <v>62.72</v>
@@ -60088,25 +60088,25 @@
         <v>0.2927</v>
       </c>
       <c r="J435" s="4">
-        <v>0.2679</v>
+        <v>0.2699</v>
       </c>
       <c r="K435" s="4">
-        <v>0.2155</v>
+        <v>0.2174</v>
       </c>
       <c r="L435" s="4">
-        <v>1.022</v>
+        <v>1.0252</v>
       </c>
       <c r="M435" s="4">
-        <v>1.2541</v>
+        <v>1.2577</v>
       </c>
       <c r="N435" s="4">
-        <v>0.4679</v>
+        <v>0.4702</v>
       </c>
       <c r="O435" s="4">
-        <v>1.8386</v>
+        <v>1.8432</v>
       </c>
       <c r="P435" s="4">
-        <v>0.0543</v>
+        <v>0.0548</v>
       </c>
       <c r="Q435" s="4" t="s">
         <v>993</v>
@@ -60115,7 +60115,7 @@
         <v>993</v>
       </c>
       <c r="S435" s="4">
-        <v>0.171906</v>
+        <v>0.173574</v>
       </c>
       <c r="T435" s="4" t="s">
         <v>993</v>
@@ -60124,19 +60124,19 @@
         <v>993</v>
       </c>
       <c r="V435" s="4">
-        <v>0.6455</v>
+        <v>0.6481</v>
       </c>
       <c r="W435" s="4">
-        <v>0.7399</v>
+        <v>0.7426</v>
       </c>
       <c r="X435" s="4">
-        <v>0.5018</v>
+        <v>0.5042</v>
       </c>
       <c r="Y435" s="4">
-        <v>1.1456</v>
+        <v>1.1491</v>
       </c>
       <c r="Z435" s="4">
-        <v>0.8443000000000001</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="AA435" s="5">
         <v>3</v>
@@ -60145,7 +60145,7 @@
         <v>7</v>
       </c>
       <c r="AC435" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD435" s="5">
         <v>16</v>
@@ -60157,13 +60157,13 @@
         <v>8</v>
       </c>
       <c r="AG435" s="5">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH435" s="2">
         <v>11</v>
       </c>
       <c r="AI435" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ435" s="2">
         <v>2</v>
@@ -60172,22 +60172,22 @@
         <v>13</v>
       </c>
       <c r="AL435" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AM435" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN435" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AO435" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP435" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ435" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="436" spans="2:43">
@@ -60204,7 +60204,7 @@
         <v>987</v>
       </c>
       <c r="F436" s="3">
-        <v>59.85</v>
+        <v>61.03</v>
       </c>
       <c r="G436" s="3">
         <v>54.29</v>
@@ -60716,7 +60716,7 @@
         <v>985</v>
       </c>
       <c r="F440" s="3">
-        <v>36.02</v>
+        <v>32.94</v>
       </c>
       <c r="G440" s="3">
         <v>20.19</v>
@@ -61228,7 +61228,7 @@
         <v>986</v>
       </c>
       <c r="F444" s="3">
-        <v>36.85</v>
+        <v>39.45</v>
       </c>
       <c r="G444" s="3">
         <v>53.08</v>
@@ -61356,7 +61356,7 @@
         <v>983</v>
       </c>
       <c r="F445" s="3">
-        <v>42.17</v>
+        <v>38.05</v>
       </c>
       <c r="G445" s="3">
         <v>32.01</v>
@@ -61368,25 +61368,25 @@
         <v>-0.0187</v>
       </c>
       <c r="J445" s="4">
-        <v>-0.0262</v>
+        <v>-0.0259</v>
       </c>
       <c r="K445" s="4">
-        <v>-0.07489999999999999</v>
+        <v>-0.0746</v>
       </c>
       <c r="L445" s="4">
-        <v>-0.1903</v>
+        <v>-0.19</v>
       </c>
       <c r="M445" s="4">
-        <v>-0.09370000000000001</v>
+        <v>-0.0935</v>
       </c>
       <c r="N445" s="4">
-        <v>-0.09950000000000001</v>
+        <v>-0.0992</v>
       </c>
       <c r="O445" s="4">
-        <v>-0.2143</v>
+        <v>-0.214</v>
       </c>
       <c r="P445" s="4">
-        <v>-0.0496</v>
+        <v>-0.0495</v>
       </c>
       <c r="Q445" s="4">
         <v>-0.1491</v>
@@ -61395,7 +61395,7 @@
         <v>993</v>
       </c>
       <c r="S445" s="4">
-        <v>-0.141542</v>
+        <v>-0.141271</v>
       </c>
       <c r="T445" s="4">
         <v>-0.553941</v>
@@ -61404,25 +61404,25 @@
         <v>993</v>
       </c>
       <c r="V445" s="4">
-        <v>-0.0969</v>
+        <v>-0.09660000000000001</v>
       </c>
       <c r="W445" s="4">
-        <v>-0.1146</v>
+        <v>-0.1143</v>
       </c>
       <c r="X445" s="4">
-        <v>-0.09710000000000001</v>
+        <v>-0.0968</v>
       </c>
       <c r="Y445" s="4">
-        <v>-0.1494</v>
+        <v>-0.1492</v>
       </c>
       <c r="Z445" s="4">
-        <v>-0.1165</v>
+        <v>-0.1162</v>
       </c>
       <c r="AA445" s="5">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB445" s="5">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC445" s="5">
         <v>458</v>
@@ -61437,7 +61437,7 @@
         <v>423</v>
       </c>
       <c r="AG445" s="5">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="AH445" s="2">
         <v>421</v>
@@ -61446,28 +61446,28 @@
         <v>426</v>
       </c>
       <c r="AJ445" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK445" s="2">
         <v>432</v>
       </c>
       <c r="AL445" s="2">
-        <v>4017</v>
+        <v>4014</v>
       </c>
       <c r="AM445" s="2">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="AN445" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="AO445" s="2">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="AP445" s="2">
         <v>2088</v>
       </c>
       <c r="AQ445" s="2">
-        <v>11971</v>
+        <v>11962</v>
       </c>
     </row>
     <row r="446" spans="2:43">
@@ -61484,7 +61484,7 @@
         <v>983</v>
       </c>
       <c r="F446" s="3">
-        <v>59.43</v>
+        <v>65.7</v>
       </c>
       <c r="G446" s="3">
         <v>69.45999999999999</v>
@@ -61571,7 +61571,7 @@
         <v>14</v>
       </c>
       <c r="AI446" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ446" s="2">
         <v>10</v>
@@ -61580,13 +61580,13 @@
         <v>23</v>
       </c>
       <c r="AL446" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM446" s="2">
         <v>197</v>
       </c>
       <c r="AN446" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO446" s="2">
         <v>134</v>
@@ -61595,7 +61595,7 @@
         <v>154</v>
       </c>
       <c r="AQ446" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="447" spans="2:43">
@@ -61612,7 +61612,7 @@
         <v>982</v>
       </c>
       <c r="F447" s="3">
-        <v>24.62</v>
+        <v>23.54</v>
       </c>
       <c r="G447" s="3">
         <v>39</v>
@@ -61684,7 +61684,7 @@
         <v>437</v>
       </c>
       <c r="AD447" s="5">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AE447" s="5">
         <v>367</v>
@@ -61693,7 +61693,7 @@
         <v>331</v>
       </c>
       <c r="AG447" s="5">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="AH447" s="2">
         <v>458</v>
@@ -61708,22 +61708,22 @@
         <v>418</v>
       </c>
       <c r="AL447" s="2">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="AM447" s="2">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="AN447" s="2">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="AO447" s="2">
         <v>1852</v>
       </c>
       <c r="AP447" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AQ447" s="2">
-        <v>13047</v>
+        <v>13051</v>
       </c>
     </row>
     <row r="448" spans="2:43">
@@ -61740,7 +61740,7 @@
         <v>985</v>
       </c>
       <c r="F448" s="3">
-        <v>47.42</v>
+        <v>48.16</v>
       </c>
       <c r="G448" s="3">
         <v>50.38</v>
@@ -62124,7 +62124,7 @@
         <v>984</v>
       </c>
       <c r="F451" s="3">
-        <v>69.23999999999999</v>
+        <v>60.95</v>
       </c>
       <c r="G451" s="3">
         <v>22.525</v>
@@ -62190,7 +62190,7 @@
         <v>36</v>
       </c>
       <c r="AB451" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC451" s="5">
         <v>265</v>
@@ -62205,7 +62205,7 @@
         <v>147</v>
       </c>
       <c r="AG451" s="5">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AH451" s="2">
         <v>167</v>
@@ -62220,22 +62220,22 @@
         <v>177</v>
       </c>
       <c r="AL451" s="2">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="AM451" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AN451" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AO451" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AP451" s="2">
         <v>966</v>
       </c>
       <c r="AQ451" s="2">
-        <v>4739</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="452" spans="2:43">
@@ -62252,7 +62252,7 @@
         <v>989</v>
       </c>
       <c r="F452" s="3">
-        <v>65.54000000000001</v>
+        <v>55.61</v>
       </c>
       <c r="G452" s="3">
         <v>170.82</v>
@@ -62318,7 +62318,7 @@
         <v>65</v>
       </c>
       <c r="AB452" s="5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC452" s="5">
         <v>22</v>
@@ -62333,7 +62333,7 @@
         <v>419</v>
       </c>
       <c r="AG452" s="5">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AH452" s="2">
         <v>134</v>
@@ -62348,22 +62348,22 @@
         <v>223</v>
       </c>
       <c r="AL452" s="2">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="AM452" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AN452" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AO452" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP452" s="2">
         <v>1170</v>
       </c>
       <c r="AQ452" s="2">
-        <v>4859</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="453" spans="2:43">
@@ -62380,7 +62380,7 @@
         <v>987</v>
       </c>
       <c r="F453" s="3">
-        <v>58.76</v>
+        <v>60.63</v>
       </c>
       <c r="G453" s="3">
         <v>19.04</v>
@@ -62761,7 +62761,7 @@
         <v>986</v>
       </c>
       <c r="F456" s="3">
-        <v>37.15</v>
+        <v>65.98</v>
       </c>
       <c r="G456" s="3">
         <v>6.73</v>
@@ -62773,25 +62773,25 @@
         <v>0.3613</v>
       </c>
       <c r="J456" s="4">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="K456" s="4">
-        <v>0.076</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="L456" s="4">
-        <v>0.1798</v>
+        <v>0.1807</v>
       </c>
       <c r="M456" s="4">
-        <v>0.0067</v>
+        <v>0.0075</v>
       </c>
       <c r="N456" s="4">
-        <v>0.8374</v>
+        <v>0.8388</v>
       </c>
       <c r="O456" s="4">
-        <v>1.311</v>
+        <v>1.3127</v>
       </c>
       <c r="P456" s="4">
-        <v>-0.2735</v>
+        <v>-0.2733</v>
       </c>
       <c r="Q456" s="4" t="s">
         <v>993</v>
@@ -62800,7 +62800,7 @@
         <v>993</v>
       </c>
       <c r="S456" s="4">
-        <v>-0.616552</v>
+        <v>-0.616235</v>
       </c>
       <c r="T456" s="4" t="s">
         <v>993</v>
@@ -62809,28 +62809,28 @@
         <v>993</v>
       </c>
       <c r="V456" s="4">
-        <v>0.2832</v>
+        <v>0.2842</v>
       </c>
       <c r="W456" s="4">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="X456" s="4">
-        <v>0.1906</v>
+        <v>0.1915</v>
       </c>
       <c r="Y456" s="4">
-        <v>0.5837</v>
+        <v>0.5849</v>
       </c>
       <c r="Z456" s="4">
-        <v>0.4545</v>
+        <v>0.4556</v>
       </c>
       <c r="AA456" s="5">
         <v>1</v>
       </c>
       <c r="AB456" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AC456" s="5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD456" s="5">
         <v>325</v>
@@ -62842,13 +62842,13 @@
         <v>20</v>
       </c>
       <c r="AG456" s="5">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AH456" s="2">
         <v>58</v>
       </c>
       <c r="AI456" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ456" s="2">
         <v>22</v>
@@ -62857,22 +62857,22 @@
         <v>48</v>
       </c>
       <c r="AL456" s="2">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="AM456" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AN456" s="2">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="AO456" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AP456" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AQ456" s="2">
-        <v>2593</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="457" spans="2:43">
@@ -62889,7 +62889,7 @@
         <v>984</v>
       </c>
       <c r="F457" s="3">
-        <v>49.13</v>
+        <v>46.71</v>
       </c>
       <c r="G457" s="3">
         <v>43.84</v>
@@ -63014,7 +63014,7 @@
         <v>990</v>
       </c>
       <c r="F458" s="3">
-        <v>63.35</v>
+        <v>59.14</v>
       </c>
       <c r="G458" s="3">
         <v>12.86</v>
@@ -63142,7 +63142,7 @@
         <v>988</v>
       </c>
       <c r="F459" s="3">
-        <v>50.08</v>
+        <v>50.91</v>
       </c>
       <c r="G459" s="3">
         <v>11.6</v>
@@ -63336,7 +63336,7 @@
         <v>235</v>
       </c>
       <c r="AC460" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD460" s="5">
         <v>409</v>
@@ -63348,7 +63348,7 @@
         <v>443</v>
       </c>
       <c r="AG460" s="5">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="AH460" s="2">
         <v>382</v>
@@ -63363,22 +63363,22 @@
         <v>419</v>
       </c>
       <c r="AL460" s="2">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="AM460" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AN460" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AO460" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AP460" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="AQ460" s="2">
-        <v>9434</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="461" spans="2:43">
@@ -63395,7 +63395,7 @@
         <v>988</v>
       </c>
       <c r="F461" s="3">
-        <v>46.09</v>
+        <v>41.52</v>
       </c>
       <c r="G461" s="3">
         <v>19.69</v>
@@ -63523,7 +63523,7 @@
         <v>991</v>
       </c>
       <c r="F462" s="3">
-        <v>55.9</v>
+        <v>58.86</v>
       </c>
       <c r="G462" s="3">
         <v>95.18000000000001</v>
@@ -63589,7 +63589,7 @@
         <v>30</v>
       </c>
       <c r="AB462" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC462" s="5">
         <v>107</v>
@@ -63604,7 +63604,7 @@
         <v>34</v>
       </c>
       <c r="AG462" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AH462" s="2">
         <v>60</v>
@@ -63619,22 +63619,22 @@
         <v>49</v>
       </c>
       <c r="AL462" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM462" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN462" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO462" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP462" s="2">
         <v>316</v>
       </c>
       <c r="AQ462" s="2">
-        <v>1871</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="463" spans="2:43">
@@ -63651,7 +63651,7 @@
         <v>985</v>
       </c>
       <c r="F463" s="3">
-        <v>22.43</v>
+        <v>21.27</v>
       </c>
       <c r="G463" s="3">
         <v>6.52</v>
@@ -63907,7 +63907,7 @@
         <v>987</v>
       </c>
       <c r="F465" s="3">
-        <v>44.22</v>
+        <v>34.5</v>
       </c>
       <c r="G465" s="3">
         <v>43.17</v>
@@ -64035,7 +64035,7 @@
         <v>990</v>
       </c>
       <c r="F466" s="3">
-        <v>65.98</v>
+        <v>57.62</v>
       </c>
       <c r="G466" s="3">
         <v>59</v>
@@ -64291,7 +64291,7 @@
         <v>982</v>
       </c>
       <c r="F468" s="3">
-        <v>30.15</v>
+        <v>28.55</v>
       </c>
       <c r="G468" s="3">
         <v>2.7</v>
@@ -64547,7 +64547,7 @@
         <v>983</v>
       </c>
       <c r="F470" s="3">
-        <v>45.25</v>
+        <v>42.87</v>
       </c>
       <c r="G470" s="3">
         <v>50.63</v>
@@ -65059,7 +65059,7 @@
         <v>986</v>
       </c>
       <c r="F474" s="3">
-        <v>68.16</v>
+        <v>61.92</v>
       </c>
       <c r="G474" s="3">
         <v>31.04</v>
@@ -65315,7 +65315,7 @@
         <v>992</v>
       </c>
       <c r="F476" s="3">
-        <v>37.47</v>
+        <v>37.35</v>
       </c>
       <c r="G476" s="3">
         <v>14.47</v>
@@ -65440,7 +65440,7 @@
         <v>989</v>
       </c>
       <c r="F477" s="3">
-        <v>71.48999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="G477" s="3">
         <v>98.06999999999999</v>
@@ -65631,7 +65631,7 @@
         <v>-0.0368</v>
       </c>
       <c r="AA478" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB478" s="5">
         <v>410</v>
@@ -65649,7 +65649,7 @@
         <v>238</v>
       </c>
       <c r="AG478" s="5">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="AH478" s="2">
         <v>388</v>
@@ -65658,28 +65658,28 @@
         <v>394</v>
       </c>
       <c r="AJ478" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK478" s="2">
         <v>346</v>
       </c>
       <c r="AL478" s="2">
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="AM478" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="AN478" s="2">
         <v>1930</v>
       </c>
       <c r="AO478" s="2">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="AP478" s="2">
         <v>1710</v>
       </c>
       <c r="AQ478" s="2">
-        <v>10926</v>
+        <v>10931</v>
       </c>
     </row>
     <row r="479" spans="2:43">
@@ -65696,7 +65696,7 @@
         <v>992</v>
       </c>
       <c r="F479" s="3">
-        <v>35.81</v>
+        <v>37.72</v>
       </c>
       <c r="G479" s="3">
         <v>7.47</v>
@@ -65824,7 +65824,7 @@
         <v>991</v>
       </c>
       <c r="F480" s="3">
-        <v>48.28</v>
+        <v>48.58</v>
       </c>
       <c r="G480" s="3">
         <v>18.79</v>
@@ -66080,7 +66080,7 @@
         <v>986</v>
       </c>
       <c r="F482" s="3">
-        <v>53.61</v>
+        <v>44.54</v>
       </c>
       <c r="G482" s="3">
         <v>7.39</v>
@@ -66143,7 +66143,7 @@
         <v>-0.0471</v>
       </c>
       <c r="AA482" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB482" s="5">
         <v>340</v>
@@ -66161,7 +66161,7 @@
         <v>336</v>
       </c>
       <c r="AG482" s="5">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="AH482" s="2">
         <v>378</v>
@@ -66176,22 +66176,22 @@
         <v>374</v>
       </c>
       <c r="AL482" s="2">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="AM482" s="2">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AN482" s="2">
         <v>1761</v>
       </c>
       <c r="AO482" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AP482" s="2">
         <v>1742</v>
       </c>
       <c r="AQ482" s="2">
-        <v>9421</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="483" spans="2:43">
@@ -66208,7 +66208,7 @@
         <v>987</v>
       </c>
       <c r="F483" s="3">
-        <v>32.43</v>
+        <v>34.08</v>
       </c>
       <c r="G483" s="3">
         <v>11.65</v>
@@ -66464,7 +66464,7 @@
         <v>990</v>
       </c>
       <c r="F485" s="3">
-        <v>23.42</v>
+        <v>21.45</v>
       </c>
       <c r="G485" s="3">
         <v>5.9</v>
@@ -66720,7 +66720,7 @@
         <v>992</v>
       </c>
       <c r="F487" s="3">
-        <v>46.51</v>
+        <v>49.06</v>
       </c>
       <c r="G487" s="3">
         <v>5.93</v>
@@ -66848,7 +66848,7 @@
         <v>990</v>
       </c>
       <c r="F488" s="3">
-        <v>60.07</v>
+        <v>42.86</v>
       </c>
       <c r="G488" s="3">
         <v>14.17</v>
@@ -66932,7 +66932,7 @@
         <v>2259</v>
       </c>
       <c r="AH488" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI488" s="2">
         <v>425</v>
@@ -66944,10 +66944,10 @@
         <v>442</v>
       </c>
       <c r="AL488" s="2">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="AM488" s="2">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AN488" s="2">
         <v>1816</v>
@@ -66959,7 +66959,7 @@
         <v>2061</v>
       </c>
       <c r="AQ488" s="2">
-        <v>11260</v>
+        <v>11262</v>
       </c>
     </row>
     <row r="489" spans="2:43">
@@ -66976,7 +66976,7 @@
         <v>985</v>
       </c>
       <c r="F489" s="3">
-        <v>52.08</v>
+        <v>48.16</v>
       </c>
       <c r="G489" s="3">
         <v>8.15</v>
@@ -67101,7 +67101,7 @@
         <v>987</v>
       </c>
       <c r="F490" s="3">
-        <v>46.73</v>
+        <v>44.18</v>
       </c>
       <c r="G490" s="3">
         <v>9.85</v>
@@ -67229,7 +67229,7 @@
         <v>983</v>
       </c>
       <c r="F491" s="3">
-        <v>19.02</v>
+        <v>17.84</v>
       </c>
       <c r="G491" s="3">
         <v>6.59</v>
@@ -67613,7 +67613,7 @@
         <v>983</v>
       </c>
       <c r="F494" s="3">
-        <v>43.59</v>
+        <v>40.27</v>
       </c>
       <c r="G494" s="3">
         <v>6.18</v>
@@ -67804,7 +67804,7 @@
         <v>906</v>
       </c>
       <c r="C6">
-        <v>0.687025</v>
+        <v>0.686775</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -67848,7 +67848,7 @@
         <v>922</v>
       </c>
       <c r="C10">
-        <v>0.493325</v>
+        <v>0.495675</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -67914,7 +67914,7 @@
         <v>499</v>
       </c>
       <c r="C16">
-        <v>0.45405</v>
+        <v>0.454325</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -68002,7 +68002,7 @@
         <v>676</v>
       </c>
       <c r="C24">
-        <v>0.3831</v>
+        <v>0.3823</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -68382,7 +68382,7 @@
         <v>906</v>
       </c>
       <c r="C4">
-        <v>1.150833333333333</v>
+        <v>1.150516666666667</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -68426,7 +68426,7 @@
         <v>499</v>
       </c>
       <c r="C8">
-        <v>0.9926166666666667</v>
+        <v>0.9930333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -68492,7 +68492,7 @@
         <v>922</v>
       </c>
       <c r="C14">
-        <v>0.8443333333333335</v>
+        <v>0.8472666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:3">
